--- a/capiq_data/in_process_data/IQ303104.xlsx
+++ b/capiq_data/in_process_data/IQ303104.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E3BB99-B490-427C-96BD-137E6D477861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020EB7BE-FF93-4101-98CE-D25D72A854CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ca28488f-2f57-492f-8bec-e7f9d26e8f40"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"f7b27b35-b6a8-47fb-aaf5-b4c2b0829181"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>72.918000000000006</v>
+        <v>-247.459</v>
       </c>
       <c r="D2">
-        <v>1895.6189999999999</v>
+        <v>1148.538</v>
       </c>
       <c r="E2">
-        <v>916.66099999999994</v>
+        <v>594.16200000000003</v>
       </c>
       <c r="F2">
-        <v>845.63199999999995</v>
+        <v>523.798</v>
       </c>
       <c r="G2">
-        <v>2213.7220000000002</v>
+        <v>1551.539</v>
       </c>
       <c r="H2">
-        <v>5169.2349999999997</v>
+        <v>3750.67</v>
       </c>
       <c r="I2">
-        <v>909.649</v>
+        <v>448.79899999999998</v>
       </c>
       <c r="J2">
-        <v>648.32600000000002</v>
+        <v>620.67499999999995</v>
       </c>
       <c r="K2">
-        <v>388.59199999999998</v>
+        <v>106.854</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2063.94</v>
+        <v>1115.2429999999999</v>
       </c>
       <c r="O2">
-        <v>3559.7950000000001</v>
+        <v>2278.806</v>
       </c>
       <c r="P2">
-        <v>1044.7929999999999</v>
+        <v>740.44899999999996</v>
       </c>
       <c r="Q2">
-        <v>-6.3630000000000004</v>
+        <v>-0.108</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>32228</v>
+        <v>26095</v>
       </c>
       <c r="T2">
-        <v>1609.44</v>
+        <v>1471.864</v>
       </c>
       <c r="U2">
-        <v>58.585000000000001</v>
+        <v>2.8959999999999999</v>
       </c>
       <c r="V2">
-        <v>228.98</v>
+        <v>212.10900000000001</v>
       </c>
       <c r="W2">
-        <v>-38.738</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-146.626</v>
+        <v>-172.47300000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-3.5350000000000001</v>
+        <v>-5.86</v>
       </c>
       <c r="AA2">
-        <v>72.918000000000006</v>
+        <v>-247.459</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>68.316000000000003</v>
+        <v>36.923999999999999</v>
       </c>
       <c r="D3">
-        <v>1855.586</v>
+        <v>1158.3699999999999</v>
       </c>
       <c r="E3">
-        <v>1012.15</v>
+        <v>637.30399999999997</v>
       </c>
       <c r="F3">
-        <v>797.40800000000002</v>
+        <v>489.02300000000002</v>
       </c>
       <c r="G3">
-        <v>2466.4</v>
+        <v>1627.0060000000001</v>
       </c>
       <c r="H3">
-        <v>5443.6530000000002</v>
+        <v>3820.5680000000002</v>
       </c>
       <c r="I3">
-        <v>954.21699999999998</v>
+        <v>462.13099999999997</v>
       </c>
       <c r="J3">
-        <v>650.88099999999997</v>
+        <v>521.81600000000003</v>
       </c>
       <c r="K3">
-        <v>678.39499999999998</v>
+        <v>360.86799999999999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-4.3019999999999996</v>
+        <v>-6.1349999999999998</v>
       </c>
       <c r="N3">
-        <v>2327.1619999999998</v>
+        <v>1380.9870000000001</v>
       </c>
       <c r="O3">
-        <v>3835.761</v>
+        <v>2370.4780000000001</v>
       </c>
       <c r="P3">
-        <v>1339.2909999999999</v>
+        <v>997.65300000000002</v>
       </c>
       <c r="Q3">
-        <v>-4.6379999999999999</v>
+        <v>-1.7450000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1607.8920000000001</v>
+        <v>1450.09</v>
       </c>
       <c r="U3">
-        <v>53.947000000000003</v>
+        <v>1.151</v>
       </c>
       <c r="V3">
-        <v>-153.166</v>
+        <v>-167.46100000000001</v>
       </c>
       <c r="W3">
-        <v>-39.003999999999998</v>
+        <v>-23.2</v>
       </c>
       <c r="X3">
-        <v>181.34399999999999</v>
+        <v>192.19800000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-8.2739999999999991</v>
+        <v>-9.58</v>
       </c>
       <c r="AA3">
-        <v>68.316000000000003</v>
+        <v>36.923999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>179.11500000000001</v>
+        <v>90.48</v>
       </c>
       <c r="D4">
-        <v>2354.7510000000002</v>
+        <v>1407.5139999999999</v>
       </c>
       <c r="E4">
-        <v>1183.825</v>
+        <v>711.601</v>
       </c>
       <c r="F4">
-        <v>1022.755</v>
+        <v>608.53700000000003</v>
       </c>
       <c r="G4">
-        <v>2638.1819999999998</v>
+        <v>1632.1559999999999</v>
       </c>
       <c r="H4">
-        <v>5633.7690000000002</v>
+        <v>3802.4879999999998</v>
       </c>
       <c r="I4">
-        <v>1019.31</v>
+        <v>464.89699999999999</v>
       </c>
       <c r="J4">
-        <v>644.255</v>
+        <v>507.392</v>
       </c>
       <c r="K4">
-        <v>571.13</v>
+        <v>252.33099999999999</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2389.8119999999999</v>
+        <v>1386.2080000000001</v>
       </c>
       <c r="O4">
-        <v>3886.9569999999999</v>
+        <v>2356.8589999999999</v>
       </c>
       <c r="P4">
-        <v>1224.8920000000001</v>
+        <v>875.73800000000006</v>
       </c>
       <c r="Q4">
-        <v>17.616</v>
+        <v>12.226000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1746.8119999999999</v>
+        <v>1445.6289999999999</v>
       </c>
       <c r="U4">
-        <v>71.563000000000002</v>
+        <v>13.377000000000001</v>
       </c>
       <c r="V4">
-        <v>261.33199999999999</v>
+        <v>228.12</v>
       </c>
       <c r="W4">
-        <v>-38.844999999999999</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-179.92699999999999</v>
+        <v>-191.821</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-12.189</v>
+        <v>-0.76600000000000001</v>
       </c>
       <c r="AA4">
-        <v>179.11500000000001</v>
+        <v>90.48</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>179.87700000000001</v>
+        <v>90.320999999999998</v>
       </c>
       <c r="D5">
-        <v>2484.92</v>
+        <v>1366.768</v>
       </c>
       <c r="E5">
-        <v>1173.5809999999999</v>
+        <v>673.60199999999998</v>
       </c>
       <c r="F5">
-        <v>1038.299</v>
+        <v>601.03899999999999</v>
       </c>
       <c r="G5">
-        <v>2509.393</v>
+        <v>1526.057</v>
       </c>
       <c r="H5">
-        <v>5490.1390000000001</v>
+        <v>3692.1329999999998</v>
       </c>
       <c r="I5">
-        <v>996.73400000000004</v>
+        <v>443.233</v>
       </c>
       <c r="J5">
-        <v>641.25699999999995</v>
+        <v>512.01499999999999</v>
       </c>
       <c r="K5">
-        <v>517.49900000000002</v>
+        <v>83.731999999999999</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2354.7289999999998</v>
+        <v>1259.8130000000001</v>
       </c>
       <c r="O5">
-        <v>3840.212</v>
+        <v>2235.1610000000001</v>
       </c>
       <c r="P5">
-        <v>1168.8399999999999</v>
+        <v>717.13900000000001</v>
       </c>
       <c r="Q5">
-        <v>-25.536999999999999</v>
+        <v>-10.863</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1649.9269999999999</v>
+        <v>1456.972</v>
       </c>
       <c r="U5">
-        <v>46.026000000000003</v>
+        <v>2.5139999999999998</v>
       </c>
       <c r="V5">
-        <v>337.79700000000003</v>
+        <v>251.21700000000001</v>
       </c>
       <c r="W5">
-        <v>-37.802</v>
+        <v>-22.667999999999999</v>
       </c>
       <c r="X5">
-        <v>-270.91199999999998</v>
+        <v>-221.40600000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-45.945</v>
+        <v>-1.238</v>
       </c>
       <c r="AA5">
-        <v>179.87700000000001</v>
+        <v>90.320999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>14.552</v>
+        <v>45.433</v>
       </c>
       <c r="D6">
-        <v>2070.442</v>
+        <v>1133.3530000000001</v>
       </c>
       <c r="E6">
-        <v>989.87300000000005</v>
+        <v>523.27800000000002</v>
       </c>
       <c r="F6">
-        <v>886.1</v>
+        <v>521.03</v>
       </c>
       <c r="G6">
-        <v>2261.5929999999998</v>
+        <v>1506.9449999999999</v>
       </c>
       <c r="H6">
-        <v>5229.2520000000004</v>
+        <v>3627.9250000000002</v>
       </c>
       <c r="I6">
-        <v>965.149</v>
+        <v>454.41</v>
       </c>
       <c r="J6">
-        <v>639.23099999999999</v>
+        <v>503.517</v>
       </c>
       <c r="K6">
-        <v>346.31299999999999</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2162.6610000000001</v>
+        <v>1141.3530000000001</v>
       </c>
       <c r="O6">
-        <v>3712.3330000000001</v>
+        <v>2140.1610000000001</v>
       </c>
       <c r="P6">
-        <v>993.36699999999996</v>
+        <v>615.36900000000003</v>
       </c>
       <c r="Q6">
-        <v>-13.33</v>
+        <v>116.3</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>32988</v>
+        <v>25789</v>
       </c>
       <c r="T6">
-        <v>1516.9190000000001</v>
+        <v>1487.7639999999999</v>
       </c>
       <c r="U6">
-        <v>32.695999999999998</v>
+        <v>118.81399999999999</v>
       </c>
       <c r="V6">
-        <v>289.84899999999999</v>
+        <v>249.77</v>
       </c>
       <c r="W6">
-        <v>-37.860999999999997</v>
+        <v>-22.399000000000001</v>
       </c>
       <c r="X6">
-        <v>-205.714</v>
+        <v>-133.095</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-25.966000000000001</v>
+        <v>-5.03</v>
       </c>
       <c r="AA6">
-        <v>14.552</v>
+        <v>45.433</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>100.21599999999999</v>
+        <v>-148.351</v>
       </c>
       <c r="D7">
-        <v>2136.3440000000001</v>
+        <v>1149.1780000000001</v>
       </c>
       <c r="E7">
-        <v>1135.174</v>
+        <v>597.86199999999997</v>
       </c>
       <c r="F7">
-        <v>909.83900000000006</v>
+        <v>498.60399999999998</v>
       </c>
       <c r="G7">
-        <v>2477.1260000000002</v>
+        <v>1528.251</v>
       </c>
       <c r="H7">
-        <v>5456.9189999999999</v>
+        <v>3433.8960000000002</v>
       </c>
       <c r="I7">
-        <v>999.68499999999995</v>
+        <v>469.80200000000002</v>
       </c>
       <c r="J7">
-        <v>637.88400000000001</v>
+        <v>503.52800000000002</v>
       </c>
       <c r="K7">
-        <v>677.02099999999996</v>
+        <v>219.84399999999999</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-5.2530000000000001</v>
+        <v>-100.629</v>
       </c>
       <c r="N7">
-        <v>2395.212</v>
+        <v>1198.4390000000001</v>
       </c>
       <c r="O7">
-        <v>3948.3220000000001</v>
+        <v>2155.7649999999999</v>
       </c>
       <c r="P7">
-        <v>1321.8119999999999</v>
+        <v>735.65200000000004</v>
       </c>
       <c r="Q7">
-        <v>-7.2030000000000003</v>
+        <v>-99.480999999999995</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1508.597</v>
+        <v>1278.1310000000001</v>
       </c>
       <c r="U7">
-        <v>25.492999999999999</v>
+        <v>19.332999999999998</v>
       </c>
       <c r="V7">
-        <v>-154.839</v>
+        <v>-111.19799999999999</v>
       </c>
       <c r="W7">
-        <v>-40.363</v>
+        <v>-22.885000000000002</v>
       </c>
       <c r="X7">
-        <v>175.79499999999999</v>
+        <v>61.223999999999997</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>3.1619999999999999</v>
+        <v>-12.923999999999999</v>
       </c>
       <c r="AA7">
-        <v>100.21599999999999</v>
+        <v>-148.351</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>227.81299999999999</v>
+        <v>107.52500000000001</v>
       </c>
       <c r="D8">
-        <v>2573.0219999999999</v>
+        <v>1453.1980000000001</v>
       </c>
       <c r="E8">
-        <v>1237.8320000000001</v>
+        <v>687.25900000000001</v>
       </c>
       <c r="F8">
-        <v>1150.597</v>
+        <v>651.80999999999995</v>
       </c>
       <c r="G8">
-        <v>2624.002</v>
+        <v>1550.9349999999999</v>
       </c>
       <c r="H8">
-        <v>5626.375</v>
+        <v>3470.7240000000002</v>
       </c>
       <c r="I8">
-        <v>1102.1479999999999</v>
+        <v>530.774</v>
       </c>
       <c r="J8">
-        <v>635.58900000000006</v>
+        <v>507.24400000000003</v>
       </c>
       <c r="K8">
-        <v>604.98500000000001</v>
+        <v>51.996000000000002</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2531.8029999999999</v>
+        <v>1196.9069999999999</v>
       </c>
       <c r="O8">
-        <v>4087.1219999999998</v>
+        <v>2153.7190000000001</v>
       </c>
       <c r="P8">
-        <v>1244.82</v>
+        <v>572.721</v>
       </c>
       <c r="Q8">
-        <v>21.123000000000001</v>
+        <v>-7.83</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1539.2529999999999</v>
+        <v>1317.0050000000001</v>
       </c>
       <c r="U8">
-        <v>46.616</v>
+        <v>11.503</v>
       </c>
       <c r="V8">
-        <v>356.95100000000002</v>
+        <v>247.517</v>
       </c>
       <c r="W8">
-        <v>-40.075000000000003</v>
+        <v>-22.978999999999999</v>
       </c>
       <c r="X8">
-        <v>-271.733</v>
+        <v>-224.15299999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>11.686</v>
+        <v>-0.28399999999999997</v>
       </c>
       <c r="AA8">
-        <v>227.81299999999999</v>
+        <v>107.526</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>234.953</v>
+        <v>111.333</v>
       </c>
       <c r="D9">
-        <v>2603.2260000000001</v>
+        <v>1426.2660000000001</v>
       </c>
       <c r="E9">
-        <v>1263.079</v>
+        <v>637.28899999999999</v>
       </c>
       <c r="F9">
-        <v>1150.2819999999999</v>
+        <v>645.29200000000003</v>
       </c>
       <c r="G9">
-        <v>2609.395</v>
+        <v>1512.258</v>
       </c>
       <c r="H9">
-        <v>5625.2650000000003</v>
+        <v>3436.1370000000002</v>
       </c>
       <c r="I9">
-        <v>1034.921</v>
+        <v>526.98199999999997</v>
       </c>
       <c r="J9">
-        <v>635.34799999999996</v>
+        <v>508.02199999999999</v>
       </c>
       <c r="K9">
-        <v>330.14800000000002</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2292.0239999999999</v>
+        <v>1150.4259999999999</v>
       </c>
       <c r="O9">
-        <v>3845.855</v>
+        <v>2098.4760000000001</v>
       </c>
       <c r="P9">
-        <v>969.43200000000002</v>
+        <v>522.02200000000005</v>
       </c>
       <c r="Q9">
-        <v>8.5649999999999995</v>
+        <v>38.353000000000002</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1779.41</v>
+        <v>1337.6610000000001</v>
       </c>
       <c r="U9">
-        <v>55.180999999999997</v>
+        <v>49.856000000000002</v>
       </c>
       <c r="V9">
-        <v>367.15300000000002</v>
+        <v>201.82499999999999</v>
       </c>
       <c r="W9">
-        <v>-40.155999999999999</v>
+        <v>-22.643000000000001</v>
       </c>
       <c r="X9">
-        <v>-273.68799999999999</v>
+        <v>-121.104</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-51.07</v>
+        <v>-1.8320000000000001</v>
       </c>
       <c r="AA9">
-        <v>234.953</v>
+        <v>111.333</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>68.052000000000007</v>
+        <v>57.058</v>
       </c>
       <c r="D10">
-        <v>2221.87</v>
+        <v>1156.146</v>
       </c>
       <c r="E10">
-        <v>1032.508</v>
+        <v>493.935</v>
       </c>
       <c r="F10">
-        <v>995.50800000000004</v>
+        <v>549.38199999999995</v>
       </c>
       <c r="G10">
-        <v>3149.2379999999998</v>
+        <v>1505.9929999999999</v>
       </c>
       <c r="H10">
-        <v>6234.7370000000001</v>
+        <v>3432.3119999999999</v>
       </c>
       <c r="I10">
-        <v>922.99900000000002</v>
+        <v>522.33900000000006</v>
       </c>
       <c r="J10">
-        <v>1632.165</v>
+        <v>506.68200000000002</v>
       </c>
       <c r="K10">
-        <v>69.034999999999997</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1876.4359999999999</v>
+        <v>1083.4960000000001</v>
       </c>
       <c r="O10">
-        <v>4442.933</v>
+        <v>2090.422</v>
       </c>
       <c r="P10">
-        <v>1704.8889999999999</v>
+        <v>521.68299999999999</v>
       </c>
       <c r="Q10">
-        <v>807.40899999999999</v>
+        <v>114.15600000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>34154</v>
+        <v>25752</v>
       </c>
       <c r="T10">
-        <v>1791.8040000000001</v>
+        <v>1341.89</v>
       </c>
       <c r="U10">
-        <v>862.59</v>
+        <v>164.012</v>
       </c>
       <c r="V10">
-        <v>318.62099999999998</v>
+        <v>220.773</v>
       </c>
       <c r="W10">
-        <v>-40.344999999999999</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>656.20399999999995</v>
+        <v>-59.81</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-59.555999999999997</v>
+        <v>-1.1040000000000001</v>
       </c>
       <c r="AA10">
-        <v>68.052000000000007</v>
+        <v>57.058</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>116.185</v>
+        <v>30.802</v>
       </c>
       <c r="D11">
-        <v>2167.1680000000001</v>
+        <v>1148.461</v>
       </c>
       <c r="E11">
-        <v>1130.94</v>
+        <v>553.81600000000003</v>
       </c>
       <c r="F11">
-        <v>962.851</v>
+        <v>501.76400000000001</v>
       </c>
       <c r="G11">
-        <v>3086.752</v>
+        <v>1457.671</v>
       </c>
       <c r="H11">
-        <v>6166.22</v>
+        <v>3407.84</v>
       </c>
       <c r="I11">
-        <v>1023.284</v>
+        <v>530.14599999999996</v>
       </c>
       <c r="J11">
-        <v>1632.1980000000001</v>
+        <v>506.45600000000002</v>
       </c>
       <c r="K11">
-        <v>68.304000000000002</v>
+        <v>98.825000000000003</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.27</v>
+        <v>-1.0940000000000001</v>
       </c>
       <c r="N11">
-        <v>1782.606</v>
+        <v>1117.9290000000001</v>
       </c>
       <c r="O11">
-        <v>4353.2650000000003</v>
+        <v>2128.1280000000002</v>
       </c>
       <c r="P11">
-        <v>1703.8879999999999</v>
+        <v>619.18799999999999</v>
       </c>
       <c r="Q11">
-        <v>-248.66</v>
+        <v>-151.178</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1812.9549999999999</v>
+        <v>1279.712</v>
       </c>
       <c r="U11">
-        <v>613.92999999999995</v>
+        <v>12.834</v>
       </c>
       <c r="V11">
-        <v>-91.131</v>
+        <v>-111.708</v>
       </c>
       <c r="W11">
-        <v>-51.744999999999997</v>
+        <v>-22.818000000000001</v>
       </c>
       <c r="X11">
-        <v>-107.405</v>
+        <v>4.1950000000000003</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-17.768000000000001</v>
+        <v>-8.9120000000000008</v>
       </c>
       <c r="AA11">
-        <v>116.185</v>
+        <v>30.802</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>257.28699999999998</v>
+        <v>110.128</v>
       </c>
       <c r="D12">
-        <v>2713.8890000000001</v>
+        <v>1471.6780000000001</v>
       </c>
       <c r="E12">
-        <v>1299.6790000000001</v>
+        <v>675.75</v>
       </c>
       <c r="F12">
-        <v>1233.579</v>
+        <v>665.75199999999995</v>
       </c>
       <c r="G12">
-        <v>3342.4349999999999</v>
+        <v>1574.894</v>
       </c>
       <c r="H12">
-        <v>6408.5039999999999</v>
+        <v>3532.3249999999998</v>
       </c>
       <c r="I12">
-        <v>1117.4590000000001</v>
+        <v>569.99800000000005</v>
       </c>
       <c r="J12">
-        <v>1631.951</v>
+        <v>505.51499999999999</v>
       </c>
       <c r="K12">
-        <v>50.664000000000001</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1967.5050000000001</v>
+        <v>1159.83</v>
       </c>
       <c r="O12">
-        <v>4540.9740000000002</v>
+        <v>2163.6849999999999</v>
       </c>
       <c r="P12">
-        <v>1685.2470000000001</v>
+        <v>517.98900000000003</v>
       </c>
       <c r="Q12">
-        <v>127.154</v>
+        <v>7.1820000000000004</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1867.53</v>
+        <v>1368.64</v>
       </c>
       <c r="U12">
-        <v>741.08399999999995</v>
+        <v>20.015999999999998</v>
       </c>
       <c r="V12">
-        <v>393.20600000000002</v>
+        <v>183.24600000000001</v>
       </c>
       <c r="W12">
-        <v>-51.555</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-189.352</v>
+        <v>-144.40799999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-35.085999999999999</v>
+        <v>1.4870000000000001</v>
       </c>
       <c r="AA12">
-        <v>257.28699999999998</v>
+        <v>110.13</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>262.96600000000001</v>
+        <v>120.297</v>
       </c>
       <c r="D13">
-        <v>2847.4169999999999</v>
+        <v>1503.086</v>
       </c>
       <c r="E13">
-        <v>1348.607</v>
+        <v>657.16700000000003</v>
       </c>
       <c r="F13">
-        <v>1295.9580000000001</v>
+        <v>678.64599999999996</v>
       </c>
       <c r="G13">
-        <v>3770.7150000000001</v>
+        <v>1667.5809999999999</v>
       </c>
       <c r="H13">
-        <v>6921.5879999999997</v>
+        <v>3639.06</v>
       </c>
       <c r="I13">
-        <v>1121.001</v>
+        <v>552.34100000000001</v>
       </c>
       <c r="J13">
-        <v>1631.9880000000001</v>
+        <v>505.12299999999999</v>
       </c>
       <c r="K13">
-        <v>295.27600000000001</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2406.2730000000001</v>
+        <v>1196.509</v>
       </c>
       <c r="O13">
-        <v>5051.9369999999999</v>
+        <v>2207.096</v>
       </c>
       <c r="P13">
-        <v>1929.65</v>
+        <v>516.71799999999996</v>
       </c>
       <c r="Q13">
-        <v>294.62900000000002</v>
+        <v>128.702</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1869.6510000000001</v>
+        <v>1431.9639999999999</v>
       </c>
       <c r="U13">
-        <v>1035.713</v>
+        <v>148.71799999999999</v>
       </c>
       <c r="V13">
-        <v>475.83600000000001</v>
+        <v>205.55500000000001</v>
       </c>
       <c r="W13">
-        <v>-51.052</v>
+        <v>-22.588000000000001</v>
       </c>
       <c r="X13">
-        <v>-50.767000000000003</v>
+        <v>-54.067999999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-3.0179999999999998</v>
+        <v>1.494</v>
       </c>
       <c r="AA13">
-        <v>262.96600000000001</v>
+        <v>120.297</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>116.123</v>
+        <v>70.831000000000003</v>
       </c>
       <c r="D14">
-        <v>2457.058</v>
+        <v>1284.539</v>
       </c>
       <c r="E14">
-        <v>1097.751</v>
+        <v>544.07000000000005</v>
       </c>
       <c r="F14">
-        <v>1124.1780000000001</v>
+        <v>609.13300000000004</v>
       </c>
       <c r="G14">
-        <v>3158.7170000000001</v>
+        <v>1715.144</v>
       </c>
       <c r="H14">
-        <v>6382.5069999999996</v>
+        <v>3682.6080000000002</v>
       </c>
       <c r="I14">
-        <v>998.48400000000004</v>
+        <v>587.93499999999995</v>
       </c>
       <c r="J14">
-        <v>1122.373</v>
+        <v>502.99200000000002</v>
       </c>
       <c r="K14">
-        <v>96.551000000000002</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2528.5569999999998</v>
+        <v>1154.17</v>
       </c>
       <c r="O14">
-        <v>4607.9719999999998</v>
+        <v>2223.7510000000002</v>
       </c>
       <c r="P14">
-        <v>1721.8720000000001</v>
+        <v>513.58799999999997</v>
       </c>
       <c r="Q14">
-        <v>-290.82400000000001</v>
+        <v>154.095</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>37633</v>
+        <v>25777</v>
       </c>
       <c r="T14">
-        <v>1774.5350000000001</v>
+        <v>1458.857</v>
       </c>
       <c r="U14">
-        <v>744.88900000000001</v>
+        <v>302.81299999999999</v>
       </c>
       <c r="V14">
-        <v>305.85500000000002</v>
+        <v>281.83600000000001</v>
       </c>
       <c r="W14">
-        <v>-50.625999999999998</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-505.78399999999999</v>
+        <v>-96.492999999999995</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-38.866999999999997</v>
+        <v>-21.943999999999999</v>
       </c>
       <c r="AA14">
-        <v>116.123</v>
+        <v>70.831000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>115.45699999999999</v>
+        <v>51.468000000000004</v>
       </c>
       <c r="D15">
-        <v>2366.556</v>
+        <v>1319.5219999999999</v>
       </c>
       <c r="E15">
-        <v>1174.116</v>
+        <v>657.64400000000001</v>
       </c>
       <c r="F15">
-        <v>1065.9010000000001</v>
+        <v>571.62699999999995</v>
       </c>
       <c r="G15">
-        <v>2967.4780000000001</v>
+        <v>1682.95</v>
       </c>
       <c r="H15">
-        <v>6189.2250000000004</v>
+        <v>3651.248</v>
       </c>
       <c r="I15">
-        <v>1130.338</v>
+        <v>630.29700000000003</v>
       </c>
       <c r="J15">
-        <v>1122.396</v>
+        <v>503.51</v>
       </c>
       <c r="K15">
-        <v>87.378</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-8.9320000000000004</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.68</v>
+        <v>-0.89400000000000002</v>
       </c>
       <c r="N15">
-        <v>2452.6439999999998</v>
+        <v>1134.566</v>
       </c>
       <c r="O15">
-        <v>4536.1859999999997</v>
+        <v>2199.9070000000002</v>
       </c>
       <c r="P15">
-        <v>1711.9970000000001</v>
+        <v>513.47699999999998</v>
       </c>
       <c r="Q15">
-        <v>-378.42399999999998</v>
+        <v>-199.24299999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1653.039</v>
+        <v>1451.3409999999999</v>
       </c>
       <c r="U15">
-        <v>366.46499999999997</v>
+        <v>103.57</v>
       </c>
       <c r="V15">
-        <v>-83.119</v>
+        <v>-103.11199999999999</v>
       </c>
       <c r="W15">
-        <v>-55.09</v>
+        <v>-24.541</v>
       </c>
       <c r="X15">
-        <v>-254.30600000000001</v>
+        <v>-62.756999999999998</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-15.705</v>
+        <v>-4.8650000000000002</v>
       </c>
       <c r="AA15">
-        <v>115.45699999999999</v>
+        <v>51.468000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>291.447</v>
+        <v>126.438</v>
       </c>
       <c r="D16">
-        <v>3042.9949999999999</v>
+        <v>1617.9549999999999</v>
       </c>
       <c r="E16">
-        <v>1402.8030000000001</v>
+        <v>775.29200000000003</v>
       </c>
       <c r="F16">
-        <v>1409.653</v>
+        <v>721.41700000000003</v>
       </c>
       <c r="G16">
-        <v>3108.1179999999999</v>
+        <v>1928.338</v>
       </c>
       <c r="H16">
-        <v>6341</v>
+        <v>3910.7350000000001</v>
       </c>
       <c r="I16">
-        <v>1244.5740000000001</v>
+        <v>705.63800000000003</v>
       </c>
       <c r="J16">
-        <v>1122.42</v>
+        <v>501.19</v>
       </c>
       <c r="K16">
-        <v>64.739000000000004</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2725.2840000000001</v>
+        <v>1346.473</v>
       </c>
       <c r="O16">
-        <v>4816.0410000000002</v>
+        <v>2404.5439999999999</v>
       </c>
       <c r="P16">
-        <v>1689.2840000000001</v>
+        <v>512.47799999999995</v>
       </c>
       <c r="Q16">
-        <v>-99.266999999999996</v>
+        <v>129.97900000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1524.9590000000001</v>
+        <v>1506.191</v>
       </c>
       <c r="U16">
-        <v>267.19799999999998</v>
+        <v>233.54900000000001</v>
       </c>
       <c r="V16">
-        <v>414.69900000000001</v>
+        <v>247.24</v>
       </c>
       <c r="W16">
-        <v>-53.746000000000002</v>
+        <v>-24.343</v>
       </c>
       <c r="X16">
-        <v>-471.358</v>
+        <v>-68.295000000000002</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-1.7829999999999999</v>
+        <v>-11.757</v>
       </c>
       <c r="AA16">
-        <v>291.447</v>
+        <v>126.438</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>326.24</v>
+        <v>132.863</v>
       </c>
       <c r="D17">
-        <v>3150.57</v>
+        <v>1677.13</v>
       </c>
       <c r="E17">
-        <v>1408.9670000000001</v>
+        <v>839.65700000000004</v>
       </c>
       <c r="F17">
-        <v>1470.9549999999999</v>
+        <v>743.54499999999996</v>
       </c>
       <c r="G17">
-        <v>3079.7350000000001</v>
+        <v>1929.1949999999999</v>
       </c>
       <c r="H17">
-        <v>6317.0050000000001</v>
+        <v>4457.1090000000004</v>
       </c>
       <c r="I17">
-        <v>1266.1669999999999</v>
+        <v>711.79399999999998</v>
       </c>
       <c r="J17">
-        <v>1122.6990000000001</v>
+        <v>498.423</v>
       </c>
       <c r="K17">
-        <v>55.621000000000002</v>
+        <v>367.95299999999997</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2868.3820000000001</v>
+        <v>1801.7619999999999</v>
       </c>
       <c r="O17">
-        <v>4965.0690000000004</v>
+        <v>2883.4630000000002</v>
       </c>
       <c r="P17">
-        <v>1680.598</v>
+        <v>877.55399999999997</v>
       </c>
       <c r="Q17">
-        <v>-5.8520000000000003</v>
+        <v>-136.327</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1351.9359999999999</v>
+        <v>1573.646</v>
       </c>
       <c r="U17">
-        <v>261.346</v>
+        <v>97.221999999999994</v>
       </c>
       <c r="V17">
-        <v>549.73</v>
+        <v>213.65100000000001</v>
       </c>
       <c r="W17">
-        <v>-53.341999999999999</v>
+        <v>-23.986999999999998</v>
       </c>
       <c r="X17">
-        <v>-460.82900000000001</v>
+        <v>216.56299999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-13.189</v>
+        <v>-0.65900000000000003</v>
       </c>
       <c r="AA17">
-        <v>326.24</v>
+        <v>132.863</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>132.74299999999999</v>
+        <v>82.484999999999999</v>
       </c>
       <c r="D18">
-        <v>2569.4119999999998</v>
+        <v>1499.183</v>
       </c>
       <c r="E18">
-        <v>1130.5650000000001</v>
+        <v>724.38499999999999</v>
       </c>
       <c r="F18">
-        <v>1196.5550000000001</v>
+        <v>670.20299999999997</v>
       </c>
       <c r="G18">
-        <v>2566.7800000000002</v>
+        <v>1781.9280000000001</v>
       </c>
       <c r="H18">
-        <v>5706.0519999999997</v>
+        <v>4274.1509999999998</v>
       </c>
       <c r="I18">
-        <v>1042.182</v>
+        <v>650.97699999999998</v>
       </c>
       <c r="J18">
-        <v>1122.7149999999999</v>
+        <v>488.23899999999998</v>
       </c>
       <c r="K18">
-        <v>679.43600000000004</v>
+        <v>238.815</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2680.6660000000002</v>
+        <v>1520.1369999999999</v>
       </c>
       <c r="O18">
-        <v>4709.5820000000003</v>
+        <v>2623.2</v>
       </c>
       <c r="P18">
-        <v>1805.4159999999999</v>
+        <v>738.26800000000003</v>
       </c>
       <c r="Q18">
-        <v>-220.614</v>
+        <v>-51.29</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>39674</v>
+        <v>28690</v>
       </c>
       <c r="T18">
-        <v>996.47</v>
+        <v>1650.951</v>
       </c>
       <c r="U18">
-        <v>40.731999999999999</v>
+        <v>45.932000000000002</v>
       </c>
       <c r="V18">
-        <v>200.21799999999999</v>
+        <v>186.90199999999999</v>
       </c>
       <c r="W18">
-        <v>-53.085000000000001</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-280.58199999999999</v>
+        <v>-208.90299999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-80.343999999999994</v>
+        <v>4.5419999999999998</v>
       </c>
       <c r="AA18">
-        <v>132.74299999999999</v>
+        <v>82.484999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>131.404</v>
+        <v>83.293999999999997</v>
       </c>
       <c r="D19">
-        <v>2450.2840000000001</v>
+        <v>1538.5450000000001</v>
       </c>
       <c r="E19">
-        <v>1234.6120000000001</v>
+        <v>838.87900000000002</v>
       </c>
       <c r="F19">
-        <v>1132.4490000000001</v>
+        <v>660.774</v>
       </c>
       <c r="G19">
-        <v>2765.79</v>
+        <v>1962.8209999999999</v>
       </c>
       <c r="H19">
-        <v>5859.25</v>
+        <v>4480.7020000000002</v>
       </c>
       <c r="I19">
-        <v>1174.8399999999999</v>
+        <v>719.24599999999998</v>
       </c>
       <c r="J19">
-        <v>1122.741</v>
+        <v>487.94299999999998</v>
       </c>
       <c r="K19">
-        <v>1405.3689999999999</v>
+        <v>498.12700000000001</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-9.6000000000000002E-2</v>
+        <v>-1.014</v>
       </c>
       <c r="N19">
-        <v>3379.0450000000001</v>
+        <v>1778.6410000000001</v>
       </c>
       <c r="O19">
-        <v>5390.0780000000004</v>
+        <v>2883.0909999999999</v>
       </c>
       <c r="P19">
-        <v>2531.2530000000002</v>
+        <v>996.56600000000003</v>
       </c>
       <c r="Q19">
-        <v>23.280999999999999</v>
+        <v>-38.436</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>469.17200000000003</v>
+        <v>1597.6110000000001</v>
       </c>
       <c r="U19">
-        <v>64.013000000000005</v>
+        <v>7.4960000000000004</v>
       </c>
       <c r="V19">
-        <v>-55.067999999999998</v>
+        <v>-98.757999999999996</v>
       </c>
       <c r="W19">
-        <v>-62.609000000000002</v>
+        <v>-28.898</v>
       </c>
       <c r="X19">
-        <v>111.13500000000001</v>
+        <v>124.53700000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-5.6000000000000001E-2</v>
+        <v>-6.2889999999999997</v>
       </c>
       <c r="AA19">
-        <v>131.404</v>
+        <v>83.293999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>349.93700000000001</v>
+        <v>153.221</v>
       </c>
       <c r="D20">
-        <v>3132.1390000000001</v>
+        <v>1965.3579999999999</v>
       </c>
       <c r="E20">
-        <v>1454.0450000000001</v>
+        <v>982.96799999999996</v>
       </c>
       <c r="F20">
-        <v>1529.9860000000001</v>
+        <v>838.16600000000005</v>
       </c>
       <c r="G20">
-        <v>3005.1280000000002</v>
+        <v>2090.2600000000002</v>
       </c>
       <c r="H20">
-        <v>6134.6639999999998</v>
+        <v>4614.2280000000001</v>
       </c>
       <c r="I20">
-        <v>1253.894</v>
+        <v>739.02800000000002</v>
       </c>
       <c r="J20">
-        <v>1122.7560000000001</v>
+        <v>487.59800000000001</v>
       </c>
       <c r="K20">
-        <v>1159.2840000000001</v>
+        <v>403.21199999999999</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3357.239</v>
+        <v>1775.232</v>
       </c>
       <c r="O20">
-        <v>5377.3220000000001</v>
+        <v>2899.2260000000001</v>
       </c>
       <c r="P20">
-        <v>2285.2190000000001</v>
+        <v>901.303</v>
       </c>
       <c r="Q20">
-        <v>11.055</v>
+        <v>5.024</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>757.34199999999998</v>
+        <v>1715.002</v>
       </c>
       <c r="U20">
-        <v>75.067999999999998</v>
+        <v>12.52</v>
       </c>
       <c r="V20">
-        <v>404.08800000000002</v>
+        <v>197.60599999999999</v>
       </c>
       <c r="W20">
-        <v>-62.642000000000003</v>
+        <v>-28.314</v>
       </c>
       <c r="X20">
-        <v>-335.33100000000002</v>
+        <v>-147.03</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-1.43</v>
+        <v>-9.5879999999999992</v>
       </c>
       <c r="AA20">
-        <v>349.93700000000001</v>
+        <v>153.221</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>374.49099999999999</v>
+        <v>151.608</v>
       </c>
       <c r="D21">
-        <v>3152.2849999999999</v>
+        <v>1976.7280000000001</v>
       </c>
       <c r="E21">
-        <v>1413.9459999999999</v>
+        <v>956.10900000000004</v>
       </c>
       <c r="F21">
-        <v>1574.5519999999999</v>
+        <v>839.745</v>
       </c>
       <c r="G21">
-        <v>2924.2359999999999</v>
+        <v>2048.415</v>
       </c>
       <c r="H21">
-        <v>6102.0230000000001</v>
+        <v>4575.442</v>
       </c>
       <c r="I21">
-        <v>1216.3420000000001</v>
+        <v>722.25099999999998</v>
       </c>
       <c r="J21">
-        <v>1920.15</v>
+        <v>487.31299999999999</v>
       </c>
       <c r="K21">
-        <v>36.805</v>
+        <v>282.62900000000002</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2294.1959999999999</v>
+        <v>1707.32</v>
       </c>
       <c r="O21">
-        <v>5125.8580000000002</v>
+        <v>2822.373</v>
       </c>
       <c r="P21">
-        <v>1960.1379999999999</v>
+        <v>780.43499999999995</v>
       </c>
       <c r="Q21">
-        <v>15.961</v>
+        <v>17.315999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>976.16499999999996</v>
+        <v>1753.069</v>
       </c>
       <c r="U21">
-        <v>91.028999999999996</v>
+        <v>29.835999999999999</v>
       </c>
       <c r="V21">
-        <v>553.48400000000004</v>
+        <v>264.52199999999999</v>
       </c>
       <c r="W21">
-        <v>-61.991</v>
+        <v>-28.501999999999999</v>
       </c>
       <c r="X21">
-        <v>-447.19400000000002</v>
+        <v>-220.24799999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-13.46</v>
+        <v>-3.91</v>
       </c>
       <c r="AA21">
-        <v>374.49099999999999</v>
+        <v>151.608</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>198.017</v>
+        <v>75.135000000000005</v>
       </c>
       <c r="D22">
-        <v>2604.596</v>
+        <v>1710.03</v>
       </c>
       <c r="E22">
-        <v>1114.2750000000001</v>
+        <v>809.27700000000004</v>
       </c>
       <c r="F22">
-        <v>1322.239</v>
+        <v>742.33299999999997</v>
       </c>
       <c r="G22">
-        <v>2657.18</v>
+        <v>1894.385</v>
       </c>
       <c r="H22">
-        <v>5778.9369999999999</v>
+        <v>4369.1949999999997</v>
       </c>
       <c r="I22">
-        <v>1157.5609999999999</v>
+        <v>719.97699999999998</v>
       </c>
       <c r="J22">
-        <v>1907.278</v>
+        <v>486.99599999999998</v>
       </c>
       <c r="K22">
-        <v>39.462000000000003</v>
+        <v>123.681</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2141.8589999999999</v>
+        <v>1554.3710000000001</v>
       </c>
       <c r="O22">
-        <v>4911.027</v>
+        <v>2638.5830000000001</v>
       </c>
       <c r="P22">
-        <v>1949.894</v>
+        <v>621.16999999999996</v>
       </c>
       <c r="Q22">
-        <v>114.715</v>
+        <v>6.2050000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>40706</v>
+        <v>29434</v>
       </c>
       <c r="T22">
-        <v>867.91</v>
+        <v>1730.6120000000001</v>
       </c>
       <c r="U22">
-        <v>205.744</v>
+        <v>36.040999999999997</v>
       </c>
       <c r="V22">
-        <v>544.95899999999995</v>
+        <v>353.33199999999999</v>
       </c>
       <c r="W22">
-        <v>-62.405000000000001</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-308.96300000000002</v>
+        <v>-287.26499999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-50.646999999999998</v>
+        <v>-17.347000000000001</v>
       </c>
       <c r="AA22">
-        <v>198.017</v>
+        <v>75.135000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>164.876</v>
+        <v>113.67100000000001</v>
       </c>
       <c r="D23">
-        <v>2574.0239999999999</v>
+        <v>1768.528</v>
       </c>
       <c r="E23">
-        <v>1290.749</v>
+        <v>909.15499999999997</v>
       </c>
       <c r="F23">
-        <v>1261.7449999999999</v>
+        <v>771.41099999999994</v>
       </c>
       <c r="G23">
-        <v>2888.625</v>
+        <v>2555.4290000000001</v>
       </c>
       <c r="H23">
-        <v>6038.3090000000002</v>
+        <v>5042.6970000000001</v>
       </c>
       <c r="I23">
-        <v>1152.923</v>
+        <v>795.721</v>
       </c>
       <c r="J23">
-        <v>1908.7739999999999</v>
+        <v>302.57499999999999</v>
       </c>
       <c r="K23">
-        <v>128.67500000000001</v>
+        <v>700.96900000000005</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-41.85</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2262.5610000000001</v>
+        <v>2299.4899999999998</v>
       </c>
       <c r="O23">
-        <v>5037.4859999999999</v>
+        <v>3199.4090000000001</v>
       </c>
       <c r="P23">
-        <v>2039.6279999999999</v>
+        <v>1211.2370000000001</v>
       </c>
       <c r="Q23">
-        <v>-135.196</v>
+        <v>458.21100000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1000.823</v>
+        <v>1843.288</v>
       </c>
       <c r="U23">
-        <v>70.548000000000002</v>
+        <v>494.25200000000001</v>
       </c>
       <c r="V23">
-        <v>-62.058999999999997</v>
+        <v>-79.376000000000005</v>
       </c>
       <c r="W23">
-        <v>-77.733999999999995</v>
+        <v>-34.049999999999997</v>
       </c>
       <c r="X23">
-        <v>-23.68</v>
+        <v>578.98099999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-10.526</v>
+        <v>-11.086</v>
       </c>
       <c r="AA23">
-        <v>164.876</v>
+        <v>113.67100000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>378.06400000000002</v>
+        <v>184.59200000000001</v>
       </c>
       <c r="D24">
-        <v>3219.5250000000001</v>
+        <v>2129.9699999999998</v>
       </c>
       <c r="E24">
-        <v>1473.078</v>
+        <v>1040.6469999999999</v>
       </c>
       <c r="F24">
-        <v>1635.9010000000001</v>
+        <v>936.58799999999997</v>
       </c>
       <c r="G24">
-        <v>3483.942</v>
+        <v>2417.0540000000001</v>
       </c>
       <c r="H24">
-        <v>6665.6769999999997</v>
+        <v>4935.2269999999999</v>
       </c>
       <c r="I24">
-        <v>1289.4059999999999</v>
+        <v>849.93399999999997</v>
       </c>
       <c r="J24">
-        <v>1909.2170000000001</v>
+        <v>300.95</v>
       </c>
       <c r="K24">
-        <v>59.203000000000003</v>
+        <v>279.005</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2625.2130000000002</v>
+        <v>2059.0880000000002</v>
       </c>
       <c r="O24">
-        <v>5419.0479999999998</v>
+        <v>2965.3310000000001</v>
       </c>
       <c r="P24">
-        <v>2145.299</v>
+        <v>789.02700000000004</v>
       </c>
       <c r="Q24">
-        <v>332.108</v>
+        <v>-245.608</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1246.6289999999999</v>
+        <v>1969.896</v>
       </c>
       <c r="U24">
-        <v>402.65600000000001</v>
+        <v>248.64400000000001</v>
       </c>
       <c r="V24">
-        <v>572.04200000000003</v>
+        <v>312.39400000000001</v>
       </c>
       <c r="W24">
-        <v>-77.986999999999995</v>
+        <v>-34.057000000000002</v>
       </c>
       <c r="X24">
-        <v>-147.17699999999999</v>
+        <v>-489.01</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-26.423999999999999</v>
+        <v>-8.0139999999999993</v>
       </c>
       <c r="AA24">
-        <v>378.06400000000002</v>
+        <v>184.59200000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>386.733</v>
+        <v>179.11199999999999</v>
       </c>
       <c r="D25">
-        <v>3279.462</v>
+        <v>2116.7109999999998</v>
       </c>
       <c r="E25">
-        <v>1458.0730000000001</v>
+        <v>1015.139</v>
       </c>
       <c r="F25">
-        <v>1636.425</v>
+        <v>935.77800000000002</v>
       </c>
       <c r="G25">
-        <v>3708.2310000000002</v>
+        <v>2545.0619999999999</v>
       </c>
       <c r="H25">
-        <v>6917.7709999999997</v>
+        <v>5085.8090000000002</v>
       </c>
       <c r="I25">
-        <v>1224.3579999999999</v>
+        <v>855.27300000000002</v>
       </c>
       <c r="J25">
-        <v>1909.713</v>
+        <v>298.755</v>
       </c>
       <c r="K25">
-        <v>50.325000000000003</v>
+        <v>275.73</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2515.8069999999998</v>
+        <v>2112.1120000000001</v>
       </c>
       <c r="O25">
-        <v>5319.9880000000003</v>
+        <v>3023.6469999999999</v>
       </c>
       <c r="P25">
-        <v>2119.0169999999998</v>
+        <v>783.13300000000004</v>
       </c>
       <c r="Q25">
-        <v>299.91300000000001</v>
+        <v>151.71600000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1597.7829999999999</v>
+        <v>2062.1619999999998</v>
       </c>
       <c r="U25">
-        <v>702.56899999999996</v>
+        <v>400.36</v>
       </c>
       <c r="V25">
-        <v>456.55099999999999</v>
+        <v>303.84800000000001</v>
       </c>
       <c r="W25">
-        <v>-78.141999999999996</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-64.849000000000004</v>
+        <v>-101.26</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-32.192999999999998</v>
+        <v>-7.3730000000000002</v>
       </c>
       <c r="AA25">
-        <v>386.733</v>
+        <v>179.11199999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>203.03</v>
+        <v>98.683000000000007</v>
       </c>
       <c r="D26">
-        <v>2782.5909999999999</v>
+        <v>1794.55</v>
       </c>
       <c r="E26">
-        <v>1230.9870000000001</v>
+        <v>864.97199999999998</v>
       </c>
       <c r="F26">
-        <v>1388.58</v>
+        <v>787.74699999999996</v>
       </c>
       <c r="G26">
-        <v>3627.2979999999998</v>
+        <v>2450.2809999999999</v>
       </c>
       <c r="H26">
-        <v>6752.5209999999997</v>
+        <v>4995.0870000000004</v>
       </c>
       <c r="I26">
-        <v>1034.6079999999999</v>
+        <v>779.36900000000003</v>
       </c>
       <c r="J26">
-        <v>1211.326</v>
+        <v>291.87599999999998</v>
       </c>
       <c r="K26">
-        <v>40.738999999999997</v>
+        <v>369.77800000000002</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2829.1790000000001</v>
+        <v>2074.8150000000001</v>
       </c>
       <c r="O26">
-        <v>4874.08</v>
+        <v>3002.7269999999999</v>
       </c>
       <c r="P26">
-        <v>1952.54</v>
+        <v>874.50699999999995</v>
       </c>
       <c r="Q26">
-        <v>187.22399999999999</v>
+        <v>68.81</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>42550</v>
+        <v>30767</v>
       </c>
       <c r="T26">
-        <v>1878.441</v>
+        <v>1992.36</v>
       </c>
       <c r="U26">
-        <v>889.79300000000001</v>
+        <v>469.17</v>
       </c>
       <c r="V26">
-        <v>342.03800000000001</v>
+        <v>278.97500000000002</v>
       </c>
       <c r="W26">
-        <v>-78.218999999999994</v>
+        <v>-33.347999999999999</v>
       </c>
       <c r="X26">
-        <v>-71.647000000000006</v>
+        <v>-52.36</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-34.039000000000001</v>
+        <v>-44.707999999999998</v>
       </c>
       <c r="AA26">
-        <v>203.03</v>
+        <v>98.683000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>239.15199999999999</v>
+        <v>111.80200000000001</v>
       </c>
       <c r="D27">
-        <v>2761.3870000000002</v>
+        <v>1756.1780000000001</v>
       </c>
       <c r="E27">
-        <v>1356.8510000000001</v>
+        <v>922.202</v>
       </c>
       <c r="F27">
-        <v>1343.0530000000001</v>
+        <v>791.36599999999999</v>
       </c>
       <c r="G27">
-        <v>3876.6640000000002</v>
+        <v>2386.8710000000001</v>
       </c>
       <c r="H27">
-        <v>6988.9030000000002</v>
+        <v>4943.9979999999996</v>
       </c>
       <c r="I27">
-        <v>1221.778</v>
+        <v>784.71400000000006</v>
       </c>
       <c r="J27">
-        <v>1211.5119999999999</v>
+        <v>291.63400000000001</v>
       </c>
       <c r="K27">
-        <v>41.908999999999999</v>
+        <v>726.81</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-7.8E-2</v>
+        <v>-197.82300000000001</v>
       </c>
       <c r="N27">
-        <v>2939.002</v>
+        <v>2106.989</v>
       </c>
       <c r="O27">
-        <v>4923.5529999999999</v>
+        <v>3029.86</v>
       </c>
       <c r="P27">
-        <v>1954.2070000000001</v>
+        <v>1034.153</v>
       </c>
       <c r="Q27">
-        <v>128.01499999999999</v>
+        <v>-169.33099999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2065.35</v>
+        <v>1914.1379999999999</v>
       </c>
       <c r="U27">
-        <v>1017.808</v>
+        <v>299.839</v>
       </c>
       <c r="V27">
-        <v>231.816</v>
+        <v>-88.162000000000006</v>
       </c>
       <c r="W27">
-        <v>-79.45</v>
+        <v>-41.506999999999998</v>
       </c>
       <c r="X27">
-        <v>-60.142000000000003</v>
+        <v>-42.387</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-23.193999999999999</v>
+        <v>3.706</v>
       </c>
       <c r="AA27">
-        <v>239.15199999999999</v>
+        <v>111.80200000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>202.607</v>
       </c>
       <c r="D28">
-        <v>3735.817</v>
+        <v>2198.1880000000001</v>
       </c>
       <c r="E28">
-        <v>2377.8739999999998</v>
+        <v>1093.345</v>
       </c>
       <c r="F28">
-        <v>1734.617</v>
+        <v>986.57</v>
       </c>
       <c r="G28">
-        <v>4854.0010000000002</v>
+        <v>2340.2739999999999</v>
       </c>
       <c r="H28">
-        <v>20717.398000000001</v>
+        <v>5052.88</v>
       </c>
       <c r="I28">
-        <v>1783.6479999999999</v>
+        <v>885.18700000000001</v>
       </c>
       <c r="J28">
-        <v>10751.284</v>
+        <v>292.05900000000003</v>
       </c>
       <c r="K28">
-        <v>51.904000000000003</v>
+        <v>454.97699999999998</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4151.9129999999996</v>
+        <v>2098.9259999999999</v>
       </c>
       <c r="O28">
-        <v>18326.137999999999</v>
+        <v>3037.6469999999999</v>
       </c>
       <c r="P28">
-        <v>11504.289000000001</v>
+        <v>757.24599999999998</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-242.297</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2391.2600000000002</v>
+        <v>2015.2329999999999</v>
       </c>
       <c r="U28">
-        <v>210.04900000000001</v>
+        <v>57.542000000000002</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>358.85199999999998</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>-41.444000000000003</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>-407.18200000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-3.5550000000000002</v>
       </c>
       <c r="AA28">
-        <v>319.11099999999999</v>
+        <v>202.607</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>316.60599999999999</v>
+        <v>200.34899999999999</v>
       </c>
       <c r="D29">
-        <v>4507.0200000000004</v>
+        <v>2197.0419999999999</v>
       </c>
       <c r="E29">
-        <v>2426.2220000000002</v>
+        <v>1097.3420000000001</v>
       </c>
       <c r="F29">
-        <v>1901.827</v>
+        <v>988.38800000000003</v>
       </c>
       <c r="G29">
-        <v>4683.9040000000005</v>
+        <v>2320.3139999999999</v>
       </c>
       <c r="H29">
-        <v>20779.656999999999</v>
+        <v>5107.8850000000002</v>
       </c>
       <c r="I29">
-        <v>1832.434</v>
+        <v>837.93399999999997</v>
       </c>
       <c r="J29">
-        <v>10083.828</v>
+        <v>293.971</v>
       </c>
       <c r="K29">
-        <v>164.13300000000001</v>
+        <v>656.37900000000002</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4371.6610000000001</v>
+        <v>2294.027</v>
       </c>
       <c r="O29">
-        <v>18038.668000000001</v>
+        <v>3263.0889999999999</v>
       </c>
       <c r="P29">
-        <v>10949.38</v>
+        <v>960.68799999999999</v>
       </c>
       <c r="Q29">
-        <v>-2.1120000000000001</v>
+        <v>-36.308999999999997</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2740.989</v>
+        <v>1844.796</v>
       </c>
       <c r="U29">
-        <v>207.93700000000001</v>
+        <v>21.233000000000001</v>
       </c>
       <c r="V29">
-        <v>672.69899999999996</v>
+        <v>293.065</v>
       </c>
       <c r="W29">
-        <v>-80.081999999999994</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-613.70899999999995</v>
+        <v>-194.84399999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>14.943</v>
+        <v>-12.308</v>
       </c>
       <c r="AA29">
-        <v>316.60599999999999</v>
+        <v>200.34899999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>853.07899999999995</v>
+        <v>100.82</v>
       </c>
       <c r="D30">
-        <v>3979.5639999999999</v>
+        <v>1853.884</v>
       </c>
       <c r="E30">
-        <v>2104.5549999999998</v>
+        <v>870.67499999999995</v>
       </c>
       <c r="F30">
-        <v>1853.136</v>
+        <v>837.11</v>
       </c>
       <c r="G30">
-        <v>4406.93</v>
+        <v>2069.58</v>
       </c>
       <c r="H30">
-        <v>19899.517</v>
+        <v>4855.34</v>
       </c>
       <c r="I30">
-        <v>1791.5519999999999</v>
+        <v>740.79700000000003</v>
       </c>
       <c r="J30">
-        <v>9885.7450000000008</v>
+        <v>293.45400000000001</v>
       </c>
       <c r="K30">
-        <v>633.73099999999999</v>
+        <v>657.08199999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3987.18</v>
+        <v>2141.3850000000002</v>
       </c>
       <c r="O30">
-        <v>16251.643</v>
+        <v>3069.6129999999998</v>
       </c>
       <c r="P30">
-        <v>10520.655000000001</v>
+        <v>965.44799999999998</v>
       </c>
       <c r="Q30">
-        <v>-3.7240000000000002</v>
+        <v>6.0919999999999996</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>52695</v>
+        <v>31572</v>
       </c>
       <c r="T30">
-        <v>3647.8739999999998</v>
+        <v>1785.7270000000001</v>
       </c>
       <c r="U30">
-        <v>204.21299999999999</v>
+        <v>27.324999999999999</v>
       </c>
       <c r="V30">
-        <v>625.13599999999997</v>
+        <v>310.79000000000002</v>
       </c>
       <c r="W30">
-        <v>-80.013000000000005</v>
+        <v>-39.164000000000001</v>
       </c>
       <c r="X30">
-        <v>-475.964</v>
+        <v>-222.20400000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-65.025000000000006</v>
+        <v>-19.997</v>
       </c>
       <c r="AA30">
-        <v>853.07899999999995</v>
+        <v>100.82</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>250.12700000000001</v>
+        <v>77.945999999999998</v>
       </c>
       <c r="D31">
-        <v>3965.0059999999999</v>
+        <v>1781.682</v>
       </c>
       <c r="E31">
-        <v>2326.4110000000001</v>
+        <v>931.44799999999998</v>
       </c>
       <c r="F31">
-        <v>1686.847</v>
+        <v>780.50800000000004</v>
       </c>
       <c r="G31">
-        <v>4886.9030000000002</v>
+        <v>2194.6419999999998</v>
       </c>
       <c r="H31">
-        <v>20367.686000000002</v>
+        <v>5010.8370000000004</v>
       </c>
       <c r="I31">
-        <v>1975.3230000000001</v>
+        <v>781.37</v>
       </c>
       <c r="J31">
-        <v>9891.0169999999998</v>
+        <v>293.49900000000002</v>
       </c>
       <c r="K31">
-        <v>920.01</v>
+        <v>1039.306</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-0.92100000000000004</v>
+        <v>-0.113</v>
       </c>
       <c r="N31">
-        <v>4327.152</v>
+        <v>2463.9470000000001</v>
       </c>
       <c r="O31">
-        <v>16677.64</v>
+        <v>3391.2249999999999</v>
       </c>
       <c r="P31">
-        <v>10812.206</v>
+        <v>1348.155</v>
       </c>
       <c r="Q31">
-        <v>-45.6</v>
+        <v>-7.2</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3690.0459999999998</v>
+        <v>1619.6120000000001</v>
       </c>
       <c r="U31">
-        <v>158.613</v>
+        <v>20.125</v>
       </c>
       <c r="V31">
-        <v>40.749000000000002</v>
+        <v>-60.53</v>
       </c>
       <c r="W31">
-        <v>-81.028000000000006</v>
+        <v>-42.037999999999997</v>
       </c>
       <c r="X31">
-        <v>-27.449000000000002</v>
+        <v>120.16500000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-5.65</v>
+        <v>-4.74</v>
       </c>
       <c r="AA31">
-        <v>250.12700000000001</v>
+        <v>77.945999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>403.60399999999998</v>
+        <v>171.68299999999999</v>
       </c>
       <c r="D32">
-        <v>4773.7960000000003</v>
+        <v>2229.5450000000001</v>
       </c>
       <c r="E32">
-        <v>2625.0659999999998</v>
+        <v>1092.306</v>
       </c>
       <c r="F32">
-        <v>2038.6279999999999</v>
+        <v>972.90300000000002</v>
       </c>
       <c r="G32">
-        <v>5037.2049999999999</v>
+        <v>2367.6289999999999</v>
       </c>
       <c r="H32">
-        <v>20154.732</v>
+        <v>5165.777</v>
       </c>
       <c r="I32">
-        <v>2049.123</v>
+        <v>874.16099999999994</v>
       </c>
       <c r="J32">
-        <v>9722.9179999999997</v>
+        <v>294.47899999999998</v>
       </c>
       <c r="K32">
-        <v>650.71799999999996</v>
+        <v>933.57399999999996</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4190.0870000000004</v>
+        <v>2570.11</v>
       </c>
       <c r="O32">
-        <v>16407.643</v>
+        <v>3500.248</v>
       </c>
       <c r="P32">
-        <v>10374.815000000001</v>
+        <v>1239.48</v>
       </c>
       <c r="Q32">
-        <v>-3.64</v>
+        <v>25.449000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3747.0889999999999</v>
+        <v>1665.529</v>
       </c>
       <c r="U32">
-        <v>154.97300000000001</v>
+        <v>45.573999999999998</v>
       </c>
       <c r="V32">
-        <v>538.34699999999998</v>
+        <v>323.33</v>
       </c>
       <c r="W32">
-        <v>-80.613</v>
+        <v>-41.137</v>
       </c>
       <c r="X32">
-        <v>-489.26400000000001</v>
+        <v>-251.46299999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-13.861000000000001</v>
+        <v>-18.626999999999999</v>
       </c>
       <c r="AA32">
-        <v>403.60399999999998</v>
+        <v>171.68299999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>354.02699999999999</v>
+        <v>177.08099999999999</v>
       </c>
       <c r="D33">
-        <v>4731.47</v>
+        <v>2268.6579999999999</v>
       </c>
       <c r="E33">
-        <v>2584.2800000000002</v>
+        <v>1072.9639999999999</v>
       </c>
       <c r="F33">
-        <v>2010.404</v>
+        <v>960.48900000000003</v>
       </c>
       <c r="G33">
-        <v>5038.0320000000002</v>
+        <v>2276.8910000000001</v>
       </c>
       <c r="H33">
-        <v>19980.696</v>
+        <v>5069.1559999999999</v>
       </c>
       <c r="I33">
-        <v>2165.7240000000002</v>
+        <v>882.31299999999999</v>
       </c>
       <c r="J33">
-        <v>8710.8310000000001</v>
+        <v>297.39100000000002</v>
       </c>
       <c r="K33">
-        <v>650.13400000000001</v>
+        <v>715.95299999999997</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4842.0649999999996</v>
+        <v>2410.8589999999999</v>
       </c>
       <c r="O33">
-        <v>16005.857</v>
+        <v>3330.87</v>
       </c>
       <c r="P33">
-        <v>9671.5259999999998</v>
+        <v>1026.8030000000001</v>
       </c>
       <c r="Q33">
-        <v>26.538</v>
+        <v>-4.6470000000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3974.8389999999999</v>
+        <v>1738.2860000000001</v>
       </c>
       <c r="U33">
-        <v>181.511</v>
+        <v>40.927</v>
       </c>
       <c r="V33">
-        <v>852.11900000000003</v>
+        <v>329.78500000000003</v>
       </c>
       <c r="W33">
-        <v>-80.897999999999996</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-808.77300000000002</v>
+        <v>-284.03399999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>32.063000000000002</v>
+        <v>-0.77</v>
       </c>
       <c r="AA33">
-        <v>354.02699999999999</v>
+        <v>177.08099999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>100.94199999999999</v>
+        <v>50.165999999999997</v>
       </c>
       <c r="D34">
-        <v>4064.2280000000001</v>
+        <v>1699.8420000000001</v>
       </c>
       <c r="E34">
-        <v>2018.8</v>
+        <v>769.98500000000001</v>
       </c>
       <c r="F34">
-        <v>1682.721</v>
+        <v>786.88</v>
       </c>
       <c r="G34">
-        <v>4344.5</v>
+        <v>1909.2049999999999</v>
       </c>
       <c r="H34">
-        <v>19134.3</v>
+        <v>4415.759</v>
       </c>
       <c r="I34">
-        <v>1799.4</v>
+        <v>738.09299999999996</v>
       </c>
       <c r="J34">
-        <v>8708.1</v>
+        <v>303.72699999999998</v>
       </c>
       <c r="K34">
-        <v>328.4</v>
+        <v>516.43799999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>4297.7</v>
+        <v>1936.7360000000001</v>
       </c>
       <c r="O34">
-        <v>15403.6</v>
+        <v>2810.1109999999999</v>
       </c>
       <c r="P34">
-        <v>9343.7000000000007</v>
+        <v>833.73500000000001</v>
       </c>
       <c r="Q34">
-        <v>-25.998000000000001</v>
+        <v>-14.715</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>53368</v>
+        <v>30677</v>
       </c>
       <c r="T34">
-        <v>3730.7</v>
+        <v>1605.6479999999999</v>
       </c>
       <c r="U34">
-        <v>155.5</v>
+        <v>26.212</v>
       </c>
       <c r="V34">
-        <v>512.48500000000001</v>
+        <v>283.64800000000002</v>
       </c>
       <c r="W34">
-        <v>-80.361000000000004</v>
+        <v>-40.948999999999998</v>
       </c>
       <c r="X34">
-        <v>-421.214</v>
+        <v>-222.578</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-51.552</v>
+        <v>-37.93</v>
       </c>
       <c r="AA34">
-        <v>100.94199999999999</v>
+        <v>50.165999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>245.2</v>
+        <v>37.279000000000003</v>
       </c>
       <c r="D35">
-        <v>4040.9</v>
+        <v>1550.6769999999999</v>
       </c>
       <c r="E35">
-        <v>2339.5509999999999</v>
+        <v>785.64</v>
       </c>
       <c r="F35">
-        <v>1735.1</v>
+        <v>680.60599999999999</v>
       </c>
       <c r="G35">
-        <v>4815.1440000000002</v>
+        <v>1907.6890000000001</v>
       </c>
       <c r="H35">
-        <v>20961.641</v>
+        <v>4412.3559999999998</v>
       </c>
       <c r="I35">
-        <v>1894.0050000000001</v>
+        <v>629.96500000000003</v>
       </c>
       <c r="J35">
-        <v>8702.6299999999992</v>
+        <v>297.75400000000002</v>
       </c>
       <c r="K35">
-        <v>824.83299999999997</v>
+        <v>765.13</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-6.6239999999999997</v>
       </c>
       <c r="N35">
-        <v>5000.5559999999996</v>
+        <v>1962.152</v>
       </c>
       <c r="O35">
-        <v>17501.580000000002</v>
+        <v>2830.3969999999999</v>
       </c>
       <c r="P35">
-        <v>11559.253000000001</v>
+        <v>1077.8720000000001</v>
       </c>
       <c r="Q35">
-        <v>-61.1</v>
+        <v>16.033000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3460.0610000000001</v>
+        <v>1581.9590000000001</v>
       </c>
       <c r="U35">
-        <v>94.393000000000001</v>
+        <v>42.244999999999997</v>
       </c>
       <c r="V35">
-        <v>-36</v>
+        <v>-112.268</v>
       </c>
       <c r="W35">
-        <v>-104.8</v>
+        <v>-41.643000000000001</v>
       </c>
       <c r="X35">
-        <v>51.4</v>
+        <v>183.04900000000001</v>
       </c>
       <c r="Y35">
-        <v>1371.4369999999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-23.6</v>
+        <v>-15.422000000000001</v>
       </c>
       <c r="AA35">
-        <v>245.2</v>
+        <v>37.279000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>471</v>
+        <v>158.023</v>
       </c>
       <c r="D36">
-        <v>4877.8</v>
+        <v>1947.827</v>
       </c>
       <c r="E36">
-        <v>2659.0509999999999</v>
+        <v>908.66</v>
       </c>
       <c r="F36">
-        <v>2181.4</v>
+        <v>895.34199999999998</v>
       </c>
       <c r="G36">
-        <v>5089.9639999999999</v>
+        <v>1977.771</v>
       </c>
       <c r="H36">
-        <v>21186.135999999999</v>
+        <v>4502.1099999999997</v>
       </c>
       <c r="I36">
-        <v>2067.8539999999998</v>
+        <v>704.74699999999996</v>
       </c>
       <c r="J36">
-        <v>7209.4809999999998</v>
+        <v>291.02499999999998</v>
       </c>
       <c r="K36">
-        <v>808.8</v>
+        <v>499.20100000000002</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>6342.64</v>
+        <v>1903.73</v>
       </c>
       <c r="O36">
-        <v>17438.653999999999</v>
+        <v>2768.1120000000001</v>
       </c>
       <c r="P36">
-        <v>11179.986999999999</v>
+        <v>800.745</v>
       </c>
       <c r="Q36">
-        <v>51.2</v>
+        <v>7.0140000000000002</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3747.482</v>
+        <v>1733.998</v>
       </c>
       <c r="U36">
-        <v>145.577</v>
+        <v>49.259</v>
       </c>
       <c r="V36">
-        <v>794</v>
+        <v>378.69200000000001</v>
       </c>
       <c r="W36">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-636</v>
+        <v>-341.94200000000001</v>
       </c>
       <c r="Y36">
-        <v>1362.2180000000001</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-28.5</v>
+        <v>-22.995999999999999</v>
       </c>
       <c r="AA36">
-        <v>471</v>
+        <v>158.023</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>576.5</v>
+        <v>175.208</v>
       </c>
       <c r="D37">
-        <v>4867.7</v>
+        <v>1996.9090000000001</v>
       </c>
       <c r="E37">
-        <v>2479.0430000000001</v>
+        <v>901.19899999999996</v>
       </c>
       <c r="F37">
-        <v>2225.6</v>
+        <v>928.98299999999995</v>
       </c>
       <c r="G37">
-        <v>4907.7389999999996</v>
+        <v>1922.7139999999999</v>
       </c>
       <c r="H37">
-        <v>20864.339</v>
+        <v>4449.45</v>
       </c>
       <c r="I37">
-        <v>2028.402</v>
+        <v>728.42</v>
       </c>
       <c r="J37">
-        <v>8043.03</v>
+        <v>289.42099999999999</v>
       </c>
       <c r="K37">
-        <v>435.69900000000001</v>
+        <v>410.99400000000003</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4865.79</v>
+        <v>1886.116</v>
       </c>
       <c r="O37">
-        <v>16841.478999999999</v>
+        <v>2746.598</v>
       </c>
       <c r="P37">
-        <v>10624.923000000001</v>
+        <v>710.97900000000004</v>
       </c>
       <c r="Q37">
-        <v>44</v>
+        <v>-16.489000000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>4022.86</v>
+        <v>1702.8520000000001</v>
       </c>
       <c r="U37">
-        <v>189.64500000000001</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="V37">
-        <v>903.4</v>
+        <v>349.21699999999998</v>
       </c>
       <c r="W37">
-        <v>-105.1</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-757.1</v>
+        <v>-341.03100000000001</v>
       </c>
       <c r="Y37">
-        <v>1352.2460000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>54.1</v>
+        <v>8.1210000000000004</v>
       </c>
       <c r="AA37">
-        <v>576.5</v>
+        <v>175.208</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>248.6</v>
+        <v>65.337999999999994</v>
       </c>
       <c r="D38">
-        <v>4114.3999999999996</v>
+        <v>1598.836</v>
       </c>
       <c r="E38">
-        <v>2139.4</v>
+        <v>696.05499999999995</v>
       </c>
       <c r="F38">
-        <v>1894</v>
+        <v>758.23800000000006</v>
       </c>
       <c r="G38">
-        <v>4631.7</v>
+        <v>1770.019</v>
       </c>
       <c r="H38">
-        <v>20496.2</v>
+        <v>4323.8549999999996</v>
       </c>
       <c r="I38">
-        <v>1876.3</v>
+        <v>674.76599999999996</v>
       </c>
       <c r="J38">
-        <v>8050.7</v>
+        <v>782.67</v>
       </c>
       <c r="K38">
-        <v>204.7</v>
+        <v>22.673999999999999</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4521.8999999999996</v>
+        <v>1393.6679999999999</v>
       </c>
       <c r="O38">
-        <v>16372.9</v>
+        <v>2832.9050000000002</v>
       </c>
       <c r="P38">
-        <v>10427.5</v>
+        <v>817.61099999999999</v>
       </c>
       <c r="Q38">
-        <v>-27.8</v>
+        <v>36.558999999999997</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>61111</v>
+        <v>29220</v>
       </c>
       <c r="T38">
-        <v>4123.3</v>
+        <v>1490.95</v>
       </c>
       <c r="U38">
-        <v>161.80000000000001</v>
+        <v>69.328999999999994</v>
       </c>
       <c r="V38">
-        <v>659.9</v>
+        <v>243.54499999999999</v>
       </c>
       <c r="W38">
-        <v>-105.9</v>
+        <v>-37.927</v>
       </c>
       <c r="X38">
-        <v>-504.7</v>
+        <v>-182.90600000000001</v>
       </c>
       <c r="Y38">
-        <v>1370.7</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-65.3</v>
+        <v>1.0669999999999999</v>
       </c>
       <c r="AA38">
-        <v>248.6</v>
+        <v>65.337999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>321.7</v>
+        <v>32.603000000000002</v>
       </c>
       <c r="D39">
-        <v>4146.7</v>
+        <v>1565.482</v>
       </c>
       <c r="E39">
-        <v>2291.5</v>
+        <v>797.81600000000003</v>
       </c>
       <c r="F39">
-        <v>1889.7</v>
+        <v>691.96799999999996</v>
       </c>
       <c r="G39">
-        <v>4928</v>
+        <v>1950.3979999999999</v>
       </c>
       <c r="H39">
-        <v>20570.3</v>
+        <v>4509.1459999999997</v>
       </c>
       <c r="I39">
-        <v>1958.4</v>
+        <v>705.30899999999997</v>
       </c>
       <c r="J39">
-        <v>8289.2000000000007</v>
+        <v>783.08199999999999</v>
       </c>
       <c r="K39">
-        <v>1051.5</v>
+        <v>245.47399999999999</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-781.2</v>
+        <v>-0.55800000000000005</v>
       </c>
       <c r="N39">
-        <v>5220.2</v>
+        <v>1557.742</v>
       </c>
       <c r="O39">
-        <v>17281.2</v>
+        <v>3014</v>
       </c>
       <c r="P39">
-        <v>11515</v>
+        <v>1040.7360000000001</v>
       </c>
       <c r="Q39">
-        <v>76.7</v>
+        <v>21.844000000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3289.1</v>
+        <v>1495.146</v>
       </c>
       <c r="U39">
-        <v>238.5</v>
+        <v>91.173000000000002</v>
       </c>
       <c r="V39">
-        <v>54.9</v>
+        <v>-115.818</v>
       </c>
       <c r="W39">
-        <v>-122.9</v>
+        <v>-39.368000000000002</v>
       </c>
       <c r="X39">
-        <v>115.7</v>
+        <v>175.54599999999999</v>
       </c>
       <c r="Y39">
-        <v>1373.7</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>6.4</v>
+        <v>-17.635000000000002</v>
       </c>
       <c r="AA39">
-        <v>321.7</v>
+        <v>32.603000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>595.9</v>
+        <v>181.70599999999999</v>
       </c>
       <c r="D40">
-        <v>4604</v>
+        <v>2143.0639999999999</v>
       </c>
       <c r="E40">
-        <v>2472.5</v>
+        <v>986.327</v>
       </c>
       <c r="F40">
-        <v>2208.9</v>
+        <v>971.89300000000003</v>
       </c>
       <c r="G40">
-        <v>4883.2</v>
+        <v>2139.922</v>
       </c>
       <c r="H40">
-        <v>20494.5</v>
+        <v>4740.2860000000001</v>
       </c>
       <c r="I40">
-        <v>1848.4</v>
+        <v>881.14099999999996</v>
       </c>
       <c r="J40">
-        <v>8289.4</v>
+        <v>699.81500000000005</v>
       </c>
       <c r="K40">
-        <v>559.5</v>
+        <v>199.48699999999999</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4459.6000000000004</v>
+        <v>1833.5409999999999</v>
       </c>
       <c r="O40">
-        <v>16624.599999999999</v>
+        <v>3209.06</v>
       </c>
       <c r="P40">
-        <v>10609.7</v>
+        <v>908.57100000000003</v>
       </c>
       <c r="Q40">
-        <v>-50.4</v>
+        <v>-42.771999999999998</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3869.9</v>
+        <v>1531.2260000000001</v>
       </c>
       <c r="U40">
-        <v>188.1</v>
+        <v>48.401000000000003</v>
       </c>
       <c r="V40">
-        <v>1019.7</v>
+        <v>352.274</v>
       </c>
       <c r="W40">
-        <v>-122.7</v>
+        <v>-39.414999999999999</v>
       </c>
       <c r="X40">
-        <v>-1001.8</v>
+        <v>-289.58100000000002</v>
       </c>
       <c r="Y40">
-        <v>1390.7</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-35.700000000000003</v>
+        <v>-41.41</v>
       </c>
       <c r="AA40">
-        <v>595.9</v>
+        <v>181.70599999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>705.8</v>
+        <v>175.25800000000001</v>
       </c>
       <c r="D41">
-        <v>5122.2</v>
+        <v>2172.259</v>
       </c>
       <c r="E41">
-        <v>2454.5</v>
+        <v>1069.8900000000001</v>
       </c>
       <c r="F41">
-        <v>2455.3000000000002</v>
+        <v>971.58500000000004</v>
       </c>
       <c r="G41">
-        <v>5175.6000000000004</v>
+        <v>2325.1019999999999</v>
       </c>
       <c r="H41">
-        <v>20809.7</v>
+        <v>5180.683</v>
       </c>
       <c r="I41">
-        <v>2056.1999999999998</v>
+        <v>927.61599999999999</v>
       </c>
       <c r="J41">
-        <v>8266.9</v>
+        <v>705.47199999999998</v>
       </c>
       <c r="K41">
-        <v>0.2</v>
+        <v>354.55599999999998</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4358.3</v>
+        <v>2125.1010000000001</v>
       </c>
       <c r="O41">
-        <v>16602.400000000001</v>
+        <v>3537.547</v>
       </c>
       <c r="P41">
-        <v>10092</v>
+        <v>1066.3420000000001</v>
       </c>
       <c r="Q41">
-        <v>431.8</v>
+        <v>16.547000000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>4207.3</v>
+        <v>1643.136</v>
       </c>
       <c r="U41">
-        <v>619.9</v>
+        <v>64.947999999999993</v>
       </c>
       <c r="V41">
-        <v>1489.2</v>
+        <v>241.154</v>
       </c>
       <c r="W41">
-        <v>-122.2</v>
+        <v>-38.902999999999999</v>
       </c>
       <c r="X41">
-        <v>-1030.0999999999999</v>
+        <v>37.093000000000004</v>
       </c>
       <c r="Y41">
-        <v>1421.3</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>7.7</v>
+        <v>-12.381</v>
       </c>
       <c r="AA41">
-        <v>705.8</v>
+        <v>175.25800000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>72.918000000000006</v>
+      </c>
+      <c r="D42">
+        <v>1895.6189999999999</v>
+      </c>
+      <c r="E42">
+        <v>916.66099999999994</v>
+      </c>
+      <c r="F42">
+        <v>845.63199999999995</v>
+      </c>
+      <c r="G42">
+        <v>2213.7220000000002</v>
+      </c>
+      <c r="H42">
+        <v>5169.2349999999997</v>
+      </c>
+      <c r="I42">
+        <v>909.649</v>
+      </c>
+      <c r="J42">
+        <v>648.32600000000002</v>
+      </c>
+      <c r="K42">
+        <v>388.59199999999998</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2063.94</v>
+      </c>
+      <c r="O42">
+        <v>3559.7950000000001</v>
+      </c>
+      <c r="P42">
+        <v>1044.7929999999999</v>
+      </c>
+      <c r="Q42">
+        <v>-6.3630000000000004</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>32228</v>
+      </c>
+      <c r="T42">
+        <v>1609.44</v>
+      </c>
+      <c r="U42">
+        <v>58.585000000000001</v>
+      </c>
+      <c r="V42">
+        <v>228.98</v>
+      </c>
+      <c r="W42">
+        <v>-38.738</v>
+      </c>
+      <c r="X42">
+        <v>-146.626</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-3.5350000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>72.918000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>68.316000000000003</v>
+      </c>
+      <c r="D43">
+        <v>1855.586</v>
+      </c>
+      <c r="E43">
+        <v>1012.15</v>
+      </c>
+      <c r="F43">
+        <v>797.40800000000002</v>
+      </c>
+      <c r="G43">
+        <v>2466.4</v>
+      </c>
+      <c r="H43">
+        <v>5443.6530000000002</v>
+      </c>
+      <c r="I43">
+        <v>954.21699999999998</v>
+      </c>
+      <c r="J43">
+        <v>650.88099999999997</v>
+      </c>
+      <c r="K43">
+        <v>678.39499999999998</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-4.3019999999999996</v>
+      </c>
+      <c r="N43">
+        <v>2327.1619999999998</v>
+      </c>
+      <c r="O43">
+        <v>3835.761</v>
+      </c>
+      <c r="P43">
+        <v>1339.2909999999999</v>
+      </c>
+      <c r="Q43">
+        <v>-4.6379999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1607.8920000000001</v>
+      </c>
+      <c r="U43">
+        <v>53.947000000000003</v>
+      </c>
+      <c r="V43">
+        <v>-153.166</v>
+      </c>
+      <c r="W43">
+        <v>-39.003999999999998</v>
+      </c>
+      <c r="X43">
+        <v>181.34399999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-8.2739999999999991</v>
+      </c>
+      <c r="AA43">
+        <v>68.316000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>179.11500000000001</v>
+      </c>
+      <c r="D44">
+        <v>2354.7510000000002</v>
+      </c>
+      <c r="E44">
+        <v>1183.825</v>
+      </c>
+      <c r="F44">
+        <v>1022.755</v>
+      </c>
+      <c r="G44">
+        <v>2638.1819999999998</v>
+      </c>
+      <c r="H44">
+        <v>5633.7690000000002</v>
+      </c>
+      <c r="I44">
+        <v>1019.31</v>
+      </c>
+      <c r="J44">
+        <v>644.255</v>
+      </c>
+      <c r="K44">
+        <v>571.13</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2389.8119999999999</v>
+      </c>
+      <c r="O44">
+        <v>3886.9569999999999</v>
+      </c>
+      <c r="P44">
+        <v>1224.8920000000001</v>
+      </c>
+      <c r="Q44">
+        <v>17.616</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1746.8119999999999</v>
+      </c>
+      <c r="U44">
+        <v>71.563000000000002</v>
+      </c>
+      <c r="V44">
+        <v>261.33199999999999</v>
+      </c>
+      <c r="W44">
+        <v>-38.844999999999999</v>
+      </c>
+      <c r="X44">
+        <v>-179.92699999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-12.189</v>
+      </c>
+      <c r="AA44">
+        <v>179.11500000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>179.87700000000001</v>
+      </c>
+      <c r="D45">
+        <v>2484.92</v>
+      </c>
+      <c r="E45">
+        <v>1173.5809999999999</v>
+      </c>
+      <c r="F45">
+        <v>1038.299</v>
+      </c>
+      <c r="G45">
+        <v>2509.393</v>
+      </c>
+      <c r="H45">
+        <v>5490.1390000000001</v>
+      </c>
+      <c r="I45">
+        <v>996.73400000000004</v>
+      </c>
+      <c r="J45">
+        <v>641.25699999999995</v>
+      </c>
+      <c r="K45">
+        <v>517.49900000000002</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2354.7289999999998</v>
+      </c>
+      <c r="O45">
+        <v>3840.212</v>
+      </c>
+      <c r="P45">
+        <v>1168.8399999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-25.536999999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1649.9269999999999</v>
+      </c>
+      <c r="U45">
+        <v>46.026000000000003</v>
+      </c>
+      <c r="V45">
+        <v>337.79700000000003</v>
+      </c>
+      <c r="W45">
+        <v>-37.802</v>
+      </c>
+      <c r="X45">
+        <v>-270.91199999999998</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-45.945</v>
+      </c>
+      <c r="AA45">
+        <v>179.87700000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>14.552</v>
+      </c>
+      <c r="D46">
+        <v>2070.442</v>
+      </c>
+      <c r="E46">
+        <v>989.87300000000005</v>
+      </c>
+      <c r="F46">
+        <v>886.1</v>
+      </c>
+      <c r="G46">
+        <v>2261.5929999999998</v>
+      </c>
+      <c r="H46">
+        <v>5229.2520000000004</v>
+      </c>
+      <c r="I46">
+        <v>965.149</v>
+      </c>
+      <c r="J46">
+        <v>639.23099999999999</v>
+      </c>
+      <c r="K46">
+        <v>346.31299999999999</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2162.6610000000001</v>
+      </c>
+      <c r="O46">
+        <v>3712.3330000000001</v>
+      </c>
+      <c r="P46">
+        <v>993.36699999999996</v>
+      </c>
+      <c r="Q46">
+        <v>-13.33</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>32988</v>
+      </c>
+      <c r="T46">
+        <v>1516.9190000000001</v>
+      </c>
+      <c r="U46">
+        <v>32.695999999999998</v>
+      </c>
+      <c r="V46">
+        <v>289.84899999999999</v>
+      </c>
+      <c r="W46">
+        <v>-37.860999999999997</v>
+      </c>
+      <c r="X46">
+        <v>-205.714</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-25.966000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>14.552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>100.21599999999999</v>
+      </c>
+      <c r="D47">
+        <v>2136.3440000000001</v>
+      </c>
+      <c r="E47">
+        <v>1135.174</v>
+      </c>
+      <c r="F47">
+        <v>909.83900000000006</v>
+      </c>
+      <c r="G47">
+        <v>2477.1260000000002</v>
+      </c>
+      <c r="H47">
+        <v>5456.9189999999999</v>
+      </c>
+      <c r="I47">
+        <v>999.68499999999995</v>
+      </c>
+      <c r="J47">
+        <v>637.88400000000001</v>
+      </c>
+      <c r="K47">
+        <v>677.02099999999996</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-5.2530000000000001</v>
+      </c>
+      <c r="N47">
+        <v>2395.212</v>
+      </c>
+      <c r="O47">
+        <v>3948.3220000000001</v>
+      </c>
+      <c r="P47">
+        <v>1321.8119999999999</v>
+      </c>
+      <c r="Q47">
+        <v>-7.2030000000000003</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1508.597</v>
+      </c>
+      <c r="U47">
+        <v>25.492999999999999</v>
+      </c>
+      <c r="V47">
+        <v>-154.839</v>
+      </c>
+      <c r="W47">
+        <v>-40.363</v>
+      </c>
+      <c r="X47">
+        <v>175.79499999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>100.21599999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>227.81299999999999</v>
+      </c>
+      <c r="D48">
+        <v>2573.0219999999999</v>
+      </c>
+      <c r="E48">
+        <v>1237.8320000000001</v>
+      </c>
+      <c r="F48">
+        <v>1150.597</v>
+      </c>
+      <c r="G48">
+        <v>2624.002</v>
+      </c>
+      <c r="H48">
+        <v>5626.375</v>
+      </c>
+      <c r="I48">
+        <v>1102.1479999999999</v>
+      </c>
+      <c r="J48">
+        <v>635.58900000000006</v>
+      </c>
+      <c r="K48">
+        <v>604.98500000000001</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2531.8029999999999</v>
+      </c>
+      <c r="O48">
+        <v>4087.1219999999998</v>
+      </c>
+      <c r="P48">
+        <v>1244.82</v>
+      </c>
+      <c r="Q48">
+        <v>21.123000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1539.2529999999999</v>
+      </c>
+      <c r="U48">
+        <v>46.616</v>
+      </c>
+      <c r="V48">
+        <v>356.95100000000002</v>
+      </c>
+      <c r="W48">
+        <v>-40.075000000000003</v>
+      </c>
+      <c r="X48">
+        <v>-271.733</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>11.686</v>
+      </c>
+      <c r="AA48">
+        <v>227.81299999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>234.953</v>
+      </c>
+      <c r="D49">
+        <v>2603.2260000000001</v>
+      </c>
+      <c r="E49">
+        <v>1263.079</v>
+      </c>
+      <c r="F49">
+        <v>1150.2819999999999</v>
+      </c>
+      <c r="G49">
+        <v>2609.395</v>
+      </c>
+      <c r="H49">
+        <v>5625.2650000000003</v>
+      </c>
+      <c r="I49">
+        <v>1034.921</v>
+      </c>
+      <c r="J49">
+        <v>635.34799999999996</v>
+      </c>
+      <c r="K49">
+        <v>330.14800000000002</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2292.0239999999999</v>
+      </c>
+      <c r="O49">
+        <v>3845.855</v>
+      </c>
+      <c r="P49">
+        <v>969.43200000000002</v>
+      </c>
+      <c r="Q49">
+        <v>8.5649999999999995</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1779.41</v>
+      </c>
+      <c r="U49">
+        <v>55.180999999999997</v>
+      </c>
+      <c r="V49">
+        <v>367.15300000000002</v>
+      </c>
+      <c r="W49">
+        <v>-40.155999999999999</v>
+      </c>
+      <c r="X49">
+        <v>-273.68799999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-51.07</v>
+      </c>
+      <c r="AA49">
+        <v>234.953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>68.052000000000007</v>
+      </c>
+      <c r="D50">
+        <v>2221.87</v>
+      </c>
+      <c r="E50">
+        <v>1032.508</v>
+      </c>
+      <c r="F50">
+        <v>995.50800000000004</v>
+      </c>
+      <c r="G50">
+        <v>3149.2379999999998</v>
+      </c>
+      <c r="H50">
+        <v>6234.7370000000001</v>
+      </c>
+      <c r="I50">
+        <v>922.99900000000002</v>
+      </c>
+      <c r="J50">
+        <v>1632.165</v>
+      </c>
+      <c r="K50">
+        <v>69.034999999999997</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1876.4359999999999</v>
+      </c>
+      <c r="O50">
+        <v>4442.933</v>
+      </c>
+      <c r="P50">
+        <v>1704.8889999999999</v>
+      </c>
+      <c r="Q50">
+        <v>807.40899999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>34154</v>
+      </c>
+      <c r="T50">
+        <v>1791.8040000000001</v>
+      </c>
+      <c r="U50">
+        <v>862.59</v>
+      </c>
+      <c r="V50">
+        <v>318.62099999999998</v>
+      </c>
+      <c r="W50">
+        <v>-40.344999999999999</v>
+      </c>
+      <c r="X50">
+        <v>656.20399999999995</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-59.555999999999997</v>
+      </c>
+      <c r="AA50">
+        <v>68.052000000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>116.185</v>
+      </c>
+      <c r="D51">
+        <v>2167.1680000000001</v>
+      </c>
+      <c r="E51">
+        <v>1130.94</v>
+      </c>
+      <c r="F51">
+        <v>962.851</v>
+      </c>
+      <c r="G51">
+        <v>3086.752</v>
+      </c>
+      <c r="H51">
+        <v>6166.22</v>
+      </c>
+      <c r="I51">
+        <v>1023.284</v>
+      </c>
+      <c r="J51">
+        <v>1632.1980000000001</v>
+      </c>
+      <c r="K51">
+        <v>68.304000000000002</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-0.27</v>
+      </c>
+      <c r="N51">
+        <v>1782.606</v>
+      </c>
+      <c r="O51">
+        <v>4353.2650000000003</v>
+      </c>
+      <c r="P51">
+        <v>1703.8879999999999</v>
+      </c>
+      <c r="Q51">
+        <v>-248.66</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1812.9549999999999</v>
+      </c>
+      <c r="U51">
+        <v>613.92999999999995</v>
+      </c>
+      <c r="V51">
+        <v>-91.131</v>
+      </c>
+      <c r="W51">
+        <v>-51.744999999999997</v>
+      </c>
+      <c r="X51">
+        <v>-107.405</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-17.768000000000001</v>
+      </c>
+      <c r="AA51">
+        <v>116.185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>257.28699999999998</v>
+      </c>
+      <c r="D52">
+        <v>2713.8890000000001</v>
+      </c>
+      <c r="E52">
+        <v>1299.6790000000001</v>
+      </c>
+      <c r="F52">
+        <v>1233.579</v>
+      </c>
+      <c r="G52">
+        <v>3342.4349999999999</v>
+      </c>
+      <c r="H52">
+        <v>6408.5039999999999</v>
+      </c>
+      <c r="I52">
+        <v>1117.4590000000001</v>
+      </c>
+      <c r="J52">
+        <v>1631.951</v>
+      </c>
+      <c r="K52">
+        <v>50.664000000000001</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1967.5050000000001</v>
+      </c>
+      <c r="O52">
+        <v>4540.9740000000002</v>
+      </c>
+      <c r="P52">
+        <v>1685.2470000000001</v>
+      </c>
+      <c r="Q52">
+        <v>127.154</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1867.53</v>
+      </c>
+      <c r="U52">
+        <v>741.08399999999995</v>
+      </c>
+      <c r="V52">
+        <v>393.20600000000002</v>
+      </c>
+      <c r="W52">
+        <v>-51.555</v>
+      </c>
+      <c r="X52">
+        <v>-189.352</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-35.085999999999999</v>
+      </c>
+      <c r="AA52">
+        <v>257.28699999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>262.96600000000001</v>
+      </c>
+      <c r="D53">
+        <v>2847.4169999999999</v>
+      </c>
+      <c r="E53">
+        <v>1348.607</v>
+      </c>
+      <c r="F53">
+        <v>1295.9580000000001</v>
+      </c>
+      <c r="G53">
+        <v>3770.7150000000001</v>
+      </c>
+      <c r="H53">
+        <v>6921.5879999999997</v>
+      </c>
+      <c r="I53">
+        <v>1121.001</v>
+      </c>
+      <c r="J53">
+        <v>1631.9880000000001</v>
+      </c>
+      <c r="K53">
+        <v>295.27600000000001</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2406.2730000000001</v>
+      </c>
+      <c r="O53">
+        <v>5051.9369999999999</v>
+      </c>
+      <c r="P53">
+        <v>1929.65</v>
+      </c>
+      <c r="Q53">
+        <v>294.62900000000002</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1869.6510000000001</v>
+      </c>
+      <c r="U53">
+        <v>1035.713</v>
+      </c>
+      <c r="V53">
+        <v>475.83600000000001</v>
+      </c>
+      <c r="W53">
+        <v>-51.052</v>
+      </c>
+      <c r="X53">
+        <v>-50.767000000000003</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-3.0179999999999998</v>
+      </c>
+      <c r="AA53">
+        <v>262.96600000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>116.123</v>
+      </c>
+      <c r="D54">
+        <v>2457.058</v>
+      </c>
+      <c r="E54">
+        <v>1097.751</v>
+      </c>
+      <c r="F54">
+        <v>1124.1780000000001</v>
+      </c>
+      <c r="G54">
+        <v>3158.7170000000001</v>
+      </c>
+      <c r="H54">
+        <v>6382.5069999999996</v>
+      </c>
+      <c r="I54">
+        <v>998.48400000000004</v>
+      </c>
+      <c r="J54">
+        <v>1122.373</v>
+      </c>
+      <c r="K54">
+        <v>96.551000000000002</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2528.5569999999998</v>
+      </c>
+      <c r="O54">
+        <v>4607.9719999999998</v>
+      </c>
+      <c r="P54">
+        <v>1721.8720000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-290.82400000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>37633</v>
+      </c>
+      <c r="T54">
+        <v>1774.5350000000001</v>
+      </c>
+      <c r="U54">
+        <v>744.88900000000001</v>
+      </c>
+      <c r="V54">
+        <v>305.85500000000002</v>
+      </c>
+      <c r="W54">
+        <v>-50.625999999999998</v>
+      </c>
+      <c r="X54">
+        <v>-505.78399999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-38.866999999999997</v>
+      </c>
+      <c r="AA54">
+        <v>116.123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>115.45699999999999</v>
+      </c>
+      <c r="D55">
+        <v>2366.556</v>
+      </c>
+      <c r="E55">
+        <v>1174.116</v>
+      </c>
+      <c r="F55">
+        <v>1065.9010000000001</v>
+      </c>
+      <c r="G55">
+        <v>2967.4780000000001</v>
+      </c>
+      <c r="H55">
+        <v>6189.2250000000004</v>
+      </c>
+      <c r="I55">
+        <v>1130.338</v>
+      </c>
+      <c r="J55">
+        <v>1122.396</v>
+      </c>
+      <c r="K55">
+        <v>87.378</v>
+      </c>
+      <c r="L55">
+        <v>-8.9320000000000004</v>
+      </c>
+      <c r="M55">
+        <v>-0.68</v>
+      </c>
+      <c r="N55">
+        <v>2452.6439999999998</v>
+      </c>
+      <c r="O55">
+        <v>4536.1859999999997</v>
+      </c>
+      <c r="P55">
+        <v>1711.9970000000001</v>
+      </c>
+      <c r="Q55">
+        <v>-378.42399999999998</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1653.039</v>
+      </c>
+      <c r="U55">
+        <v>366.46499999999997</v>
+      </c>
+      <c r="V55">
+        <v>-83.119</v>
+      </c>
+      <c r="W55">
+        <v>-55.09</v>
+      </c>
+      <c r="X55">
+        <v>-254.30600000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-15.705</v>
+      </c>
+      <c r="AA55">
+        <v>115.45699999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>291.447</v>
+      </c>
+      <c r="D56">
+        <v>3042.9949999999999</v>
+      </c>
+      <c r="E56">
+        <v>1402.8030000000001</v>
+      </c>
+      <c r="F56">
+        <v>1409.653</v>
+      </c>
+      <c r="G56">
+        <v>3108.1179999999999</v>
+      </c>
+      <c r="H56">
+        <v>6341</v>
+      </c>
+      <c r="I56">
+        <v>1244.5740000000001</v>
+      </c>
+      <c r="J56">
+        <v>1122.42</v>
+      </c>
+      <c r="K56">
+        <v>64.739000000000004</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2725.2840000000001</v>
+      </c>
+      <c r="O56">
+        <v>4816.0410000000002</v>
+      </c>
+      <c r="P56">
+        <v>1689.2840000000001</v>
+      </c>
+      <c r="Q56">
+        <v>-99.266999999999996</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1524.9590000000001</v>
+      </c>
+      <c r="U56">
+        <v>267.19799999999998</v>
+      </c>
+      <c r="V56">
+        <v>414.69900000000001</v>
+      </c>
+      <c r="W56">
+        <v>-53.746000000000002</v>
+      </c>
+      <c r="X56">
+        <v>-471.358</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-1.7829999999999999</v>
+      </c>
+      <c r="AA56">
+        <v>291.447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>326.24</v>
+      </c>
+      <c r="D57">
+        <v>3150.57</v>
+      </c>
+      <c r="E57">
+        <v>1408.9670000000001</v>
+      </c>
+      <c r="F57">
+        <v>1470.9549999999999</v>
+      </c>
+      <c r="G57">
+        <v>3079.7350000000001</v>
+      </c>
+      <c r="H57">
+        <v>6317.0050000000001</v>
+      </c>
+      <c r="I57">
+        <v>1266.1669999999999</v>
+      </c>
+      <c r="J57">
+        <v>1122.6990000000001</v>
+      </c>
+      <c r="K57">
+        <v>55.621000000000002</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2868.3820000000001</v>
+      </c>
+      <c r="O57">
+        <v>4965.0690000000004</v>
+      </c>
+      <c r="P57">
+        <v>1680.598</v>
+      </c>
+      <c r="Q57">
+        <v>-5.8520000000000003</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1351.9359999999999</v>
+      </c>
+      <c r="U57">
+        <v>261.346</v>
+      </c>
+      <c r="V57">
+        <v>549.73</v>
+      </c>
+      <c r="W57">
+        <v>-53.341999999999999</v>
+      </c>
+      <c r="X57">
+        <v>-460.82900000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-13.189</v>
+      </c>
+      <c r="AA57">
+        <v>326.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>132.74299999999999</v>
+      </c>
+      <c r="D58">
+        <v>2569.4119999999998</v>
+      </c>
+      <c r="E58">
+        <v>1130.5650000000001</v>
+      </c>
+      <c r="F58">
+        <v>1196.5550000000001</v>
+      </c>
+      <c r="G58">
+        <v>2566.7800000000002</v>
+      </c>
+      <c r="H58">
+        <v>5706.0519999999997</v>
+      </c>
+      <c r="I58">
+        <v>1042.182</v>
+      </c>
+      <c r="J58">
+        <v>1122.7149999999999</v>
+      </c>
+      <c r="K58">
+        <v>679.43600000000004</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2680.6660000000002</v>
+      </c>
+      <c r="O58">
+        <v>4709.5820000000003</v>
+      </c>
+      <c r="P58">
+        <v>1805.4159999999999</v>
+      </c>
+      <c r="Q58">
+        <v>-220.614</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>39674</v>
+      </c>
+      <c r="T58">
+        <v>996.47</v>
+      </c>
+      <c r="U58">
+        <v>40.731999999999999</v>
+      </c>
+      <c r="V58">
+        <v>200.21799999999999</v>
+      </c>
+      <c r="W58">
+        <v>-53.085000000000001</v>
+      </c>
+      <c r="X58">
+        <v>-280.58199999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-80.343999999999994</v>
+      </c>
+      <c r="AA58">
+        <v>132.74299999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>131.404</v>
+      </c>
+      <c r="D59">
+        <v>2450.2840000000001</v>
+      </c>
+      <c r="E59">
+        <v>1234.6120000000001</v>
+      </c>
+      <c r="F59">
+        <v>1132.4490000000001</v>
+      </c>
+      <c r="G59">
+        <v>2765.79</v>
+      </c>
+      <c r="H59">
+        <v>5859.25</v>
+      </c>
+      <c r="I59">
+        <v>1174.8399999999999</v>
+      </c>
+      <c r="J59">
+        <v>1122.741</v>
+      </c>
+      <c r="K59">
+        <v>1405.3689999999999</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="N59">
+        <v>3379.0450000000001</v>
+      </c>
+      <c r="O59">
+        <v>5390.0780000000004</v>
+      </c>
+      <c r="P59">
+        <v>2531.2530000000002</v>
+      </c>
+      <c r="Q59">
+        <v>23.280999999999999</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>469.17200000000003</v>
+      </c>
+      <c r="U59">
+        <v>64.013000000000005</v>
+      </c>
+      <c r="V59">
+        <v>-55.067999999999998</v>
+      </c>
+      <c r="W59">
+        <v>-62.609000000000002</v>
+      </c>
+      <c r="X59">
+        <v>111.13500000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="AA59">
+        <v>131.404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>349.93700000000001</v>
+      </c>
+      <c r="D60">
+        <v>3132.1390000000001</v>
+      </c>
+      <c r="E60">
+        <v>1454.0450000000001</v>
+      </c>
+      <c r="F60">
+        <v>1529.9860000000001</v>
+      </c>
+      <c r="G60">
+        <v>3005.1280000000002</v>
+      </c>
+      <c r="H60">
+        <v>6134.6639999999998</v>
+      </c>
+      <c r="I60">
+        <v>1253.894</v>
+      </c>
+      <c r="J60">
+        <v>1122.7560000000001</v>
+      </c>
+      <c r="K60">
+        <v>1159.2840000000001</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3357.239</v>
+      </c>
+      <c r="O60">
+        <v>5377.3220000000001</v>
+      </c>
+      <c r="P60">
+        <v>2285.2190000000001</v>
+      </c>
+      <c r="Q60">
+        <v>11.055</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>757.34199999999998</v>
+      </c>
+      <c r="U60">
+        <v>75.067999999999998</v>
+      </c>
+      <c r="V60">
+        <v>404.08800000000002</v>
+      </c>
+      <c r="W60">
+        <v>-62.642000000000003</v>
+      </c>
+      <c r="X60">
+        <v>-335.33100000000002</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-1.43</v>
+      </c>
+      <c r="AA60">
+        <v>349.93700000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>374.49099999999999</v>
+      </c>
+      <c r="D61">
+        <v>3152.2849999999999</v>
+      </c>
+      <c r="E61">
+        <v>1413.9459999999999</v>
+      </c>
+      <c r="F61">
+        <v>1574.5519999999999</v>
+      </c>
+      <c r="G61">
+        <v>2924.2359999999999</v>
+      </c>
+      <c r="H61">
+        <v>6102.0230000000001</v>
+      </c>
+      <c r="I61">
+        <v>1216.3420000000001</v>
+      </c>
+      <c r="J61">
+        <v>1920.15</v>
+      </c>
+      <c r="K61">
+        <v>36.805</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2294.1959999999999</v>
+      </c>
+      <c r="O61">
+        <v>5125.8580000000002</v>
+      </c>
+      <c r="P61">
+        <v>1960.1379999999999</v>
+      </c>
+      <c r="Q61">
+        <v>15.961</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>976.16499999999996</v>
+      </c>
+      <c r="U61">
+        <v>91.028999999999996</v>
+      </c>
+      <c r="V61">
+        <v>553.48400000000004</v>
+      </c>
+      <c r="W61">
+        <v>-61.991</v>
+      </c>
+      <c r="X61">
+        <v>-447.19400000000002</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-13.46</v>
+      </c>
+      <c r="AA61">
+        <v>374.49099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>198.017</v>
+      </c>
+      <c r="D62">
+        <v>2604.596</v>
+      </c>
+      <c r="E62">
+        <v>1114.2750000000001</v>
+      </c>
+      <c r="F62">
+        <v>1322.239</v>
+      </c>
+      <c r="G62">
+        <v>2657.18</v>
+      </c>
+      <c r="H62">
+        <v>5778.9369999999999</v>
+      </c>
+      <c r="I62">
+        <v>1157.5609999999999</v>
+      </c>
+      <c r="J62">
+        <v>1907.278</v>
+      </c>
+      <c r="K62">
+        <v>39.462000000000003</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2141.8589999999999</v>
+      </c>
+      <c r="O62">
+        <v>4911.027</v>
+      </c>
+      <c r="P62">
+        <v>1949.894</v>
+      </c>
+      <c r="Q62">
+        <v>114.715</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>40706</v>
+      </c>
+      <c r="T62">
+        <v>867.91</v>
+      </c>
+      <c r="U62">
+        <v>205.744</v>
+      </c>
+      <c r="V62">
+        <v>544.95899999999995</v>
+      </c>
+      <c r="W62">
+        <v>-62.405000000000001</v>
+      </c>
+      <c r="X62">
+        <v>-308.96300000000002</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-50.646999999999998</v>
+      </c>
+      <c r="AA62">
+        <v>198.017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>164.876</v>
+      </c>
+      <c r="D63">
+        <v>2574.0239999999999</v>
+      </c>
+      <c r="E63">
+        <v>1290.749</v>
+      </c>
+      <c r="F63">
+        <v>1261.7449999999999</v>
+      </c>
+      <c r="G63">
+        <v>2888.625</v>
+      </c>
+      <c r="H63">
+        <v>6038.3090000000002</v>
+      </c>
+      <c r="I63">
+        <v>1152.923</v>
+      </c>
+      <c r="J63">
+        <v>1908.7739999999999</v>
+      </c>
+      <c r="K63">
+        <v>128.67500000000001</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-41.85</v>
+      </c>
+      <c r="N63">
+        <v>2262.5610000000001</v>
+      </c>
+      <c r="O63">
+        <v>5037.4859999999999</v>
+      </c>
+      <c r="P63">
+        <v>2039.6279999999999</v>
+      </c>
+      <c r="Q63">
+        <v>-135.196</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1000.823</v>
+      </c>
+      <c r="U63">
+        <v>70.548000000000002</v>
+      </c>
+      <c r="V63">
+        <v>-62.058999999999997</v>
+      </c>
+      <c r="W63">
+        <v>-77.733999999999995</v>
+      </c>
+      <c r="X63">
+        <v>-23.68</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-10.526</v>
+      </c>
+      <c r="AA63">
+        <v>164.876</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>378.06400000000002</v>
+      </c>
+      <c r="D64">
+        <v>3219.5250000000001</v>
+      </c>
+      <c r="E64">
+        <v>1473.078</v>
+      </c>
+      <c r="F64">
+        <v>1635.9010000000001</v>
+      </c>
+      <c r="G64">
+        <v>3483.942</v>
+      </c>
+      <c r="H64">
+        <v>6665.6769999999997</v>
+      </c>
+      <c r="I64">
+        <v>1289.4059999999999</v>
+      </c>
+      <c r="J64">
+        <v>1909.2170000000001</v>
+      </c>
+      <c r="K64">
+        <v>59.203000000000003</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2625.2130000000002</v>
+      </c>
+      <c r="O64">
+        <v>5419.0479999999998</v>
+      </c>
+      <c r="P64">
+        <v>2145.299</v>
+      </c>
+      <c r="Q64">
+        <v>332.108</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1246.6289999999999</v>
+      </c>
+      <c r="U64">
+        <v>402.65600000000001</v>
+      </c>
+      <c r="V64">
+        <v>572.04200000000003</v>
+      </c>
+      <c r="W64">
+        <v>-77.986999999999995</v>
+      </c>
+      <c r="X64">
+        <v>-147.17699999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-26.423999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>378.06400000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>386.733</v>
+      </c>
+      <c r="D65">
+        <v>3279.462</v>
+      </c>
+      <c r="E65">
+        <v>1458.0730000000001</v>
+      </c>
+      <c r="F65">
+        <v>1636.425</v>
+      </c>
+      <c r="G65">
+        <v>3708.2310000000002</v>
+      </c>
+      <c r="H65">
+        <v>6917.7709999999997</v>
+      </c>
+      <c r="I65">
+        <v>1224.3579999999999</v>
+      </c>
+      <c r="J65">
+        <v>1909.713</v>
+      </c>
+      <c r="K65">
+        <v>50.325000000000003</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2515.8069999999998</v>
+      </c>
+      <c r="O65">
+        <v>5319.9880000000003</v>
+      </c>
+      <c r="P65">
+        <v>2119.0169999999998</v>
+      </c>
+      <c r="Q65">
+        <v>299.91300000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1597.7829999999999</v>
+      </c>
+      <c r="U65">
+        <v>702.56899999999996</v>
+      </c>
+      <c r="V65">
+        <v>456.55099999999999</v>
+      </c>
+      <c r="W65">
+        <v>-78.141999999999996</v>
+      </c>
+      <c r="X65">
+        <v>-64.849000000000004</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-32.192999999999998</v>
+      </c>
+      <c r="AA65">
+        <v>386.733</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>203.03</v>
+      </c>
+      <c r="D66">
+        <v>2782.5909999999999</v>
+      </c>
+      <c r="E66">
+        <v>1230.9870000000001</v>
+      </c>
+      <c r="F66">
+        <v>1388.58</v>
+      </c>
+      <c r="G66">
+        <v>3627.2979999999998</v>
+      </c>
+      <c r="H66">
+        <v>6752.5209999999997</v>
+      </c>
+      <c r="I66">
+        <v>1034.6079999999999</v>
+      </c>
+      <c r="J66">
+        <v>1211.326</v>
+      </c>
+      <c r="K66">
+        <v>40.738999999999997</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2829.1790000000001</v>
+      </c>
+      <c r="O66">
+        <v>4874.08</v>
+      </c>
+      <c r="P66">
+        <v>1952.54</v>
+      </c>
+      <c r="Q66">
+        <v>187.22399999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>42550</v>
+      </c>
+      <c r="T66">
+        <v>1878.441</v>
+      </c>
+      <c r="U66">
+        <v>889.79300000000001</v>
+      </c>
+      <c r="V66">
+        <v>342.03800000000001</v>
+      </c>
+      <c r="W66">
+        <v>-78.218999999999994</v>
+      </c>
+      <c r="X66">
+        <v>-71.647000000000006</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-34.039000000000001</v>
+      </c>
+      <c r="AA66">
+        <v>203.03</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>239.15199999999999</v>
+      </c>
+      <c r="D67">
+        <v>2761.3870000000002</v>
+      </c>
+      <c r="E67">
+        <v>1356.8510000000001</v>
+      </c>
+      <c r="F67">
+        <v>1343.0530000000001</v>
+      </c>
+      <c r="G67">
+        <v>3876.6640000000002</v>
+      </c>
+      <c r="H67">
+        <v>6988.9030000000002</v>
+      </c>
+      <c r="I67">
+        <v>1221.778</v>
+      </c>
+      <c r="J67">
+        <v>1211.5119999999999</v>
+      </c>
+      <c r="K67">
+        <v>41.908999999999999</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="N67">
+        <v>2939.002</v>
+      </c>
+      <c r="O67">
+        <v>4923.5529999999999</v>
+      </c>
+      <c r="P67">
+        <v>1954.2070000000001</v>
+      </c>
+      <c r="Q67">
+        <v>128.01499999999999</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2065.35</v>
+      </c>
+      <c r="U67">
+        <v>1017.808</v>
+      </c>
+      <c r="V67">
+        <v>231.816</v>
+      </c>
+      <c r="W67">
+        <v>-79.45</v>
+      </c>
+      <c r="X67">
+        <v>-60.142000000000003</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-23.193999999999999</v>
+      </c>
+      <c r="AA67">
+        <v>239.15199999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>3735.817</v>
+      </c>
+      <c r="E68">
+        <v>2377.8739999999998</v>
+      </c>
+      <c r="F68">
+        <v>1734.617</v>
+      </c>
+      <c r="G68">
+        <v>4854.0010000000002</v>
+      </c>
+      <c r="H68">
+        <v>20717.398000000001</v>
+      </c>
+      <c r="I68">
+        <v>1783.6479999999999</v>
+      </c>
+      <c r="J68">
+        <v>10751.284</v>
+      </c>
+      <c r="K68">
+        <v>51.904000000000003</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4151.9129999999996</v>
+      </c>
+      <c r="O68">
+        <v>18326.137999999999</v>
+      </c>
+      <c r="P68">
+        <v>11504.289000000001</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2391.2600000000002</v>
+      </c>
+      <c r="U68">
+        <v>210.04900000000001</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>319.11099999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>316.60599999999999</v>
+      </c>
+      <c r="D69">
+        <v>4507.0200000000004</v>
+      </c>
+      <c r="E69">
+        <v>2426.2220000000002</v>
+      </c>
+      <c r="F69">
+        <v>1901.827</v>
+      </c>
+      <c r="G69">
+        <v>4683.9040000000005</v>
+      </c>
+      <c r="H69">
+        <v>20779.656999999999</v>
+      </c>
+      <c r="I69">
+        <v>1832.434</v>
+      </c>
+      <c r="J69">
+        <v>10083.828</v>
+      </c>
+      <c r="K69">
+        <v>164.13300000000001</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>4371.6610000000001</v>
+      </c>
+      <c r="O69">
+        <v>18038.668000000001</v>
+      </c>
+      <c r="P69">
+        <v>10949.38</v>
+      </c>
+      <c r="Q69">
+        <v>-2.1120000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2740.989</v>
+      </c>
+      <c r="U69">
+        <v>207.93700000000001</v>
+      </c>
+      <c r="V69">
+        <v>672.69899999999996</v>
+      </c>
+      <c r="W69">
+        <v>-80.081999999999994</v>
+      </c>
+      <c r="X69">
+        <v>-613.70899999999995</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>14.943</v>
+      </c>
+      <c r="AA69">
+        <v>316.60599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>853.07899999999995</v>
+      </c>
+      <c r="D70">
+        <v>3979.5639999999999</v>
+      </c>
+      <c r="E70">
+        <v>2104.5549999999998</v>
+      </c>
+      <c r="F70">
+        <v>1853.136</v>
+      </c>
+      <c r="G70">
+        <v>4406.93</v>
+      </c>
+      <c r="H70">
+        <v>19899.517</v>
+      </c>
+      <c r="I70">
+        <v>1791.5519999999999</v>
+      </c>
+      <c r="J70">
+        <v>9885.7450000000008</v>
+      </c>
+      <c r="K70">
+        <v>633.73099999999999</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3987.18</v>
+      </c>
+      <c r="O70">
+        <v>16251.643</v>
+      </c>
+      <c r="P70">
+        <v>10520.655000000001</v>
+      </c>
+      <c r="Q70">
+        <v>-3.7240000000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>52695</v>
+      </c>
+      <c r="T70">
+        <v>3647.8739999999998</v>
+      </c>
+      <c r="U70">
+        <v>204.21299999999999</v>
+      </c>
+      <c r="V70">
+        <v>625.13599999999997</v>
+      </c>
+      <c r="W70">
+        <v>-80.013000000000005</v>
+      </c>
+      <c r="X70">
+        <v>-475.964</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-65.025000000000006</v>
+      </c>
+      <c r="AA70">
+        <v>853.07899999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>250.12700000000001</v>
+      </c>
+      <c r="D71">
+        <v>3965.0059999999999</v>
+      </c>
+      <c r="E71">
+        <v>2326.4110000000001</v>
+      </c>
+      <c r="F71">
+        <v>1686.847</v>
+      </c>
+      <c r="G71">
+        <v>4886.9030000000002</v>
+      </c>
+      <c r="H71">
+        <v>20367.686000000002</v>
+      </c>
+      <c r="I71">
+        <v>1975.3230000000001</v>
+      </c>
+      <c r="J71">
+        <v>9891.0169999999998</v>
+      </c>
+      <c r="K71">
+        <v>920.01</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-0.92100000000000004</v>
+      </c>
+      <c r="N71">
+        <v>4327.152</v>
+      </c>
+      <c r="O71">
+        <v>16677.64</v>
+      </c>
+      <c r="P71">
+        <v>10812.206</v>
+      </c>
+      <c r="Q71">
+        <v>-45.6</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3690.0459999999998</v>
+      </c>
+      <c r="U71">
+        <v>158.613</v>
+      </c>
+      <c r="V71">
+        <v>40.749000000000002</v>
+      </c>
+      <c r="W71">
+        <v>-81.028000000000006</v>
+      </c>
+      <c r="X71">
+        <v>-27.449000000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-5.65</v>
+      </c>
+      <c r="AA71">
+        <v>250.12700000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>403.60399999999998</v>
+      </c>
+      <c r="D72">
+        <v>4773.7960000000003</v>
+      </c>
+      <c r="E72">
+        <v>2625.0659999999998</v>
+      </c>
+      <c r="F72">
+        <v>2038.6279999999999</v>
+      </c>
+      <c r="G72">
+        <v>5037.2049999999999</v>
+      </c>
+      <c r="H72">
+        <v>20154.732</v>
+      </c>
+      <c r="I72">
+        <v>2049.123</v>
+      </c>
+      <c r="J72">
+        <v>9722.9179999999997</v>
+      </c>
+      <c r="K72">
+        <v>650.71799999999996</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4190.0870000000004</v>
+      </c>
+      <c r="O72">
+        <v>16407.643</v>
+      </c>
+      <c r="P72">
+        <v>10374.815000000001</v>
+      </c>
+      <c r="Q72">
+        <v>-3.64</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3747.0889999999999</v>
+      </c>
+      <c r="U72">
+        <v>154.97300000000001</v>
+      </c>
+      <c r="V72">
+        <v>538.34699999999998</v>
+      </c>
+      <c r="W72">
+        <v>-80.613</v>
+      </c>
+      <c r="X72">
+        <v>-489.26400000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-13.861000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>403.60399999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>354.02699999999999</v>
+      </c>
+      <c r="D73">
+        <v>4731.47</v>
+      </c>
+      <c r="E73">
+        <v>2584.2800000000002</v>
+      </c>
+      <c r="F73">
+        <v>2010.404</v>
+      </c>
+      <c r="G73">
+        <v>5038.0320000000002</v>
+      </c>
+      <c r="H73">
+        <v>19980.696</v>
+      </c>
+      <c r="I73">
+        <v>2165.7240000000002</v>
+      </c>
+      <c r="J73">
+        <v>8710.8310000000001</v>
+      </c>
+      <c r="K73">
+        <v>650.13400000000001</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>4842.0649999999996</v>
+      </c>
+      <c r="O73">
+        <v>16005.857</v>
+      </c>
+      <c r="P73">
+        <v>9671.5259999999998</v>
+      </c>
+      <c r="Q73">
+        <v>26.538</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3974.8389999999999</v>
+      </c>
+      <c r="U73">
+        <v>181.511</v>
+      </c>
+      <c r="V73">
+        <v>852.11900000000003</v>
+      </c>
+      <c r="W73">
+        <v>-80.897999999999996</v>
+      </c>
+      <c r="X73">
+        <v>-808.77300000000002</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>32.063000000000002</v>
+      </c>
+      <c r="AA73">
+        <v>354.02699999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>100.94199999999999</v>
+      </c>
+      <c r="D74">
+        <v>4064.2280000000001</v>
+      </c>
+      <c r="E74">
+        <v>2018.8</v>
+      </c>
+      <c r="F74">
+        <v>1682.721</v>
+      </c>
+      <c r="G74">
+        <v>4344.5</v>
+      </c>
+      <c r="H74">
+        <v>19134.3</v>
+      </c>
+      <c r="I74">
+        <v>1799.4</v>
+      </c>
+      <c r="J74">
+        <v>8708.1</v>
+      </c>
+      <c r="K74">
+        <v>328.4</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>4297.7</v>
+      </c>
+      <c r="O74">
+        <v>15403.6</v>
+      </c>
+      <c r="P74">
+        <v>9343.7000000000007</v>
+      </c>
+      <c r="Q74">
+        <v>-25.998000000000001</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>53368</v>
+      </c>
+      <c r="T74">
+        <v>3730.7</v>
+      </c>
+      <c r="U74">
+        <v>155.5</v>
+      </c>
+      <c r="V74">
+        <v>512.48500000000001</v>
+      </c>
+      <c r="W74">
+        <v>-80.361000000000004</v>
+      </c>
+      <c r="X74">
+        <v>-421.214</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-51.552</v>
+      </c>
+      <c r="AA74">
+        <v>100.94199999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>245.2</v>
+      </c>
+      <c r="D75">
+        <v>4040.9</v>
+      </c>
+      <c r="E75">
+        <v>2339.5509999999999</v>
+      </c>
+      <c r="F75">
+        <v>1735.1</v>
+      </c>
+      <c r="G75">
+        <v>4815.1440000000002</v>
+      </c>
+      <c r="H75">
+        <v>20961.641</v>
+      </c>
+      <c r="I75">
+        <v>1894.0050000000001</v>
+      </c>
+      <c r="J75">
+        <v>8702.6299999999992</v>
+      </c>
+      <c r="K75">
+        <v>824.83299999999997</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>5000.5559999999996</v>
+      </c>
+      <c r="O75">
+        <v>17501.580000000002</v>
+      </c>
+      <c r="P75">
+        <v>11559.253000000001</v>
+      </c>
+      <c r="Q75">
+        <v>-61.1</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>3460.0610000000001</v>
+      </c>
+      <c r="U75">
+        <v>94.393000000000001</v>
+      </c>
+      <c r="V75">
+        <v>-36</v>
+      </c>
+      <c r="W75">
+        <v>-104.8</v>
+      </c>
+      <c r="X75">
+        <v>51.4</v>
+      </c>
+      <c r="Y75">
+        <v>1371.4369999999999</v>
+      </c>
+      <c r="Z75">
+        <v>-23.6</v>
+      </c>
+      <c r="AA75">
+        <v>245.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>471</v>
+      </c>
+      <c r="D76">
+        <v>4877.8</v>
+      </c>
+      <c r="E76">
+        <v>2659.0509999999999</v>
+      </c>
+      <c r="F76">
+        <v>2181.4</v>
+      </c>
+      <c r="G76">
+        <v>5089.9639999999999</v>
+      </c>
+      <c r="H76">
+        <v>21186.135999999999</v>
+      </c>
+      <c r="I76">
+        <v>2067.8539999999998</v>
+      </c>
+      <c r="J76">
+        <v>7209.4809999999998</v>
+      </c>
+      <c r="K76">
+        <v>808.8</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>6342.64</v>
+      </c>
+      <c r="O76">
+        <v>17438.653999999999</v>
+      </c>
+      <c r="P76">
+        <v>11179.986999999999</v>
+      </c>
+      <c r="Q76">
+        <v>51.2</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3747.482</v>
+      </c>
+      <c r="U76">
+        <v>145.577</v>
+      </c>
+      <c r="V76">
+        <v>794</v>
+      </c>
+      <c r="W76">
+        <v>-105</v>
+      </c>
+      <c r="X76">
+        <v>-636</v>
+      </c>
+      <c r="Y76">
+        <v>1362.2180000000001</v>
+      </c>
+      <c r="Z76">
+        <v>-28.5</v>
+      </c>
+      <c r="AA76">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>576.5</v>
+      </c>
+      <c r="D77">
+        <v>4867.7</v>
+      </c>
+      <c r="E77">
+        <v>2479.0430000000001</v>
+      </c>
+      <c r="F77">
+        <v>2225.6</v>
+      </c>
+      <c r="G77">
+        <v>4907.7389999999996</v>
+      </c>
+      <c r="H77">
+        <v>20864.339</v>
+      </c>
+      <c r="I77">
+        <v>2028.402</v>
+      </c>
+      <c r="J77">
+        <v>8043.03</v>
+      </c>
+      <c r="K77">
+        <v>435.69900000000001</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4865.79</v>
+      </c>
+      <c r="O77">
+        <v>16841.478999999999</v>
+      </c>
+      <c r="P77">
+        <v>10624.923000000001</v>
+      </c>
+      <c r="Q77">
+        <v>44</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>4022.86</v>
+      </c>
+      <c r="U77">
+        <v>189.64500000000001</v>
+      </c>
+      <c r="V77">
+        <v>903.4</v>
+      </c>
+      <c r="W77">
+        <v>-105.1</v>
+      </c>
+      <c r="X77">
+        <v>-757.1</v>
+      </c>
+      <c r="Y77">
+        <v>1352.2460000000001</v>
+      </c>
+      <c r="Z77">
+        <v>54.1</v>
+      </c>
+      <c r="AA77">
+        <v>576.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>248.6</v>
+      </c>
+      <c r="D78">
+        <v>4114.3999999999996</v>
+      </c>
+      <c r="E78">
+        <v>2139.4</v>
+      </c>
+      <c r="F78">
+        <v>1894</v>
+      </c>
+      <c r="G78">
+        <v>4631.7</v>
+      </c>
+      <c r="H78">
+        <v>20496.2</v>
+      </c>
+      <c r="I78">
+        <v>1876.3</v>
+      </c>
+      <c r="J78">
+        <v>8050.7</v>
+      </c>
+      <c r="K78">
+        <v>204.7</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4521.8999999999996</v>
+      </c>
+      <c r="O78">
+        <v>16372.9</v>
+      </c>
+      <c r="P78">
+        <v>10427.5</v>
+      </c>
+      <c r="Q78">
+        <v>-27.8</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>61111</v>
+      </c>
+      <c r="T78">
+        <v>4123.3</v>
+      </c>
+      <c r="U78">
+        <v>161.80000000000001</v>
+      </c>
+      <c r="V78">
+        <v>659.9</v>
+      </c>
+      <c r="W78">
+        <v>-105.9</v>
+      </c>
+      <c r="X78">
+        <v>-504.7</v>
+      </c>
+      <c r="Y78">
+        <v>1370.7</v>
+      </c>
+      <c r="Z78">
+        <v>-65.3</v>
+      </c>
+      <c r="AA78">
+        <v>248.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>321.7</v>
+      </c>
+      <c r="D79">
+        <v>4146.7</v>
+      </c>
+      <c r="E79">
+        <v>2291.5</v>
+      </c>
+      <c r="F79">
+        <v>1889.7</v>
+      </c>
+      <c r="G79">
+        <v>4928</v>
+      </c>
+      <c r="H79">
+        <v>20570.3</v>
+      </c>
+      <c r="I79">
+        <v>1958.4</v>
+      </c>
+      <c r="J79">
+        <v>8289.2000000000007</v>
+      </c>
+      <c r="K79">
+        <v>1051.5</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-781.2</v>
+      </c>
+      <c r="N79">
+        <v>5220.2</v>
+      </c>
+      <c r="O79">
+        <v>17281.2</v>
+      </c>
+      <c r="P79">
+        <v>11515</v>
+      </c>
+      <c r="Q79">
+        <v>76.7</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3289.1</v>
+      </c>
+      <c r="U79">
+        <v>238.5</v>
+      </c>
+      <c r="V79">
+        <v>54.9</v>
+      </c>
+      <c r="W79">
+        <v>-122.9</v>
+      </c>
+      <c r="X79">
+        <v>115.7</v>
+      </c>
+      <c r="Y79">
+        <v>1373.7</v>
+      </c>
+      <c r="Z79">
+        <v>6.4</v>
+      </c>
+      <c r="AA79">
+        <v>321.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>595.9</v>
+      </c>
+      <c r="D80">
+        <v>4604</v>
+      </c>
+      <c r="E80">
+        <v>2472.5</v>
+      </c>
+      <c r="F80">
+        <v>2208.9</v>
+      </c>
+      <c r="G80">
+        <v>4883.2</v>
+      </c>
+      <c r="H80">
+        <v>20494.5</v>
+      </c>
+      <c r="I80">
+        <v>1848.4</v>
+      </c>
+      <c r="J80">
+        <v>8289.4</v>
+      </c>
+      <c r="K80">
+        <v>559.5</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4459.6000000000004</v>
+      </c>
+      <c r="O80">
+        <v>16624.599999999999</v>
+      </c>
+      <c r="P80">
+        <v>10609.7</v>
+      </c>
+      <c r="Q80">
+        <v>-50.4</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3869.9</v>
+      </c>
+      <c r="U80">
+        <v>188.1</v>
+      </c>
+      <c r="V80">
+        <v>1019.7</v>
+      </c>
+      <c r="W80">
+        <v>-122.7</v>
+      </c>
+      <c r="X80">
+        <v>-1001.8</v>
+      </c>
+      <c r="Y80">
+        <v>1390.7</v>
+      </c>
+      <c r="Z80">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="AA80">
+        <v>595.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>705.8</v>
+      </c>
+      <c r="D81">
+        <v>5122.2</v>
+      </c>
+      <c r="E81">
+        <v>2454.5</v>
+      </c>
+      <c r="F81">
+        <v>2455.3000000000002</v>
+      </c>
+      <c r="G81">
+        <v>5175.6000000000004</v>
+      </c>
+      <c r="H81">
+        <v>20809.7</v>
+      </c>
+      <c r="I81">
+        <v>2056.1999999999998</v>
+      </c>
+      <c r="J81">
+        <v>8266.9</v>
+      </c>
+      <c r="K81">
+        <v>0.2</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>4358.3</v>
+      </c>
+      <c r="O81">
+        <v>16602.400000000001</v>
+      </c>
+      <c r="P81">
+        <v>10092</v>
+      </c>
+      <c r="Q81">
+        <v>431.8</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>4207.3</v>
+      </c>
+      <c r="U81">
+        <v>619.9</v>
+      </c>
+      <c r="V81">
+        <v>1489.2</v>
+      </c>
+      <c r="W81">
+        <v>-122.2</v>
+      </c>
+      <c r="X81">
+        <v>-1030.0999999999999</v>
+      </c>
+      <c r="Y81">
+        <v>1421.3</v>
+      </c>
+      <c r="Z81">
+        <v>7.7</v>
+      </c>
+      <c r="AA81">
+        <v>705.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>407</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>4488.8</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2130.1</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>2128.6999999999998</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>4591.3999999999996</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>20401.599999999999</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>2117.8000000000002</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>8266.9</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>0.1</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>4594.3999999999996</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>16790.8</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>10113.5</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-393.3</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>61031</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3610.8</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>226.6</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>844.8</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-120.2</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-1103.9000000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>1434.1</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-57.7</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>407</v>
       </c>
     </row>
